--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_NOx.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_NOx.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_NOx</t>
+  </si>
+  <si>
+    <t>02_taxi_NOx</t>
+  </si>
+  <si>
+    <t>03_van_NOx</t>
+  </si>
+  <si>
+    <t>04_bus_NOx</t>
+  </si>
+  <si>
+    <t>05_LightTruck_NOx</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_NOx</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_NOx</t>
+  </si>
+  <si>
+    <t>Total_NOx (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1298 +397,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_NOx</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_NOx</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_NOx</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_NOx</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_NOx</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_NOx</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_NOx (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1586.546456474334</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.1739323025913675</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.178835584116576</v>
+      </c>
+      <c r="D2">
         <v>118.6740859489748</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>52.69707273258045</v>
+      </c>
+      <c r="F2">
         <v>273.9572652941767</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>432.6651484606713</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>21.65014563606566</v>
       </c>
-      <c r="H2" t="n">
-        <v>2433.667034116814</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>2486.36901013092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1179.98086255568</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.1811794818660078</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>0.1862870667880999</v>
+      </c>
+      <c r="D3">
         <v>115.9142234850452</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>37.08312525626032</v>
+      </c>
+      <c r="F3">
         <v>285.6426462782886</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>304.0901279275474</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>16.55599372169727</v>
       </c>
-      <c r="H3" t="n">
-        <v>1902.365033450124</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>1939.453266291307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1276.135193251095</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.1956738404152885</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0.2011900321311479</v>
+      </c>
+      <c r="D4">
         <v>96.59518623753767</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>52.69707273258045</v>
+      </c>
+      <c r="F4">
         <v>235.0059953471373</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>300.0083812439563</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>7.641227871552588</v>
       </c>
-      <c r="H4" t="n">
-        <v>1915.581657791694</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>1968.284246715991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1189.387264471536</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.2391569160631303</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.2458989281602919</v>
+      </c>
+      <c r="D5">
         <v>126.9536733407639</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>42.93835555988038</v>
+      </c>
+      <c r="F5">
         <v>197.3531010649993</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>271.4361544588174</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>14.00891776451308</v>
       </c>
-      <c r="H5" t="n">
-        <v>1799.378268016693</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>1842.32336558867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1235.374118282387</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.2898871709856125</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0.2980593068609599</v>
+      </c>
+      <c r="D6">
         <v>107.6346360932562</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>55.62468788439049</v>
+      </c>
+      <c r="F6">
         <v>228.5141170226308</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>281.6405211677957</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>15.28245574310518</v>
       </c>
-      <c r="H6" t="n">
-        <v>1868.73573548016</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>1924.368595500426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1214.471002913818</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.2319097367884901</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>0.238447445488768</v>
+      </c>
+      <c r="D7">
         <v>132.473398268623</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>41.96248384261035</v>
+      </c>
+      <c r="F7">
         <v>257.0783816504597</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>287.7631411931823</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>14.00891776451308</v>
       </c>
-      <c r="H7" t="n">
-        <v>1906.026751527385</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>1947.995773078695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1279.27066055638</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.253651274612411</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0.2608018935033399</v>
+      </c>
+      <c r="D8">
         <v>91.07546130967837</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>44.89009899442039</v>
+      </c>
+      <c r="F8">
         <v>231.1108683524334</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>220.4143209139271</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>17.82953170028937</v>
       </c>
-      <c r="H8" t="n">
-        <v>1839.95449410732</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>1884.851743720632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1745.410133275453</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.1449435854928063</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.1490296534304799</v>
+      </c>
+      <c r="D9">
         <v>182.1509226193567</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>60.50404647074052</v>
+      </c>
+      <c r="F9">
         <v>255.7800059855583</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>214.2917008885402</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>12.73537978592098</v>
       </c>
-      <c r="H9" t="n">
-        <v>2410.513086140322</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>2471.021218679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2127.937144520253</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.1956738404152885</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0.2011900321311479</v>
+      </c>
+      <c r="D10">
         <v>107.6346360932562</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>61.47991818801056</v>
+      </c>
+      <c r="F10">
         <v>153.2083284583547</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>81.63493367182485</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>28.01783552902615</v>
       </c>
-      <c r="H10" t="n">
-        <v>2498.62855211313</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>2560.113986492857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2049.550461888122</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.1739323025913675</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0.178835584116576</v>
+      </c>
+      <c r="D11">
         <v>91.07546130967837</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>72.21450707798063</v>
+      </c>
+      <c r="F11">
         <v>109.0635558517102</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>51.02183354489053</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>5.094151914368392</v>
       </c>
-      <c r="H11" t="n">
-        <v>2305.97939681136</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>2378.198807170867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1474.714789252494</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.2391569160631303</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.2458989281602919</v>
+      </c>
+      <c r="D12">
         <v>80.03601145395976</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>68.31102020890059</v>
+      </c>
+      <c r="F12">
         <v>68.81391023976951</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>69.38969362105111</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>2.547075957184196</v>
       </c>
-      <c r="H12" t="n">
-        <v>1695.740637440522</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>1764.05839966152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1063.968572260127</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.3768533222812964</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.3874770989192479</v>
+      </c>
+      <c r="D13">
         <v>57.95711174252261</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>58.55230303620051</v>
+      </c>
+      <c r="F13">
         <v>55.8301535907564</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>71.43056696284668</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>6.36768989296049</v>
       </c>
-      <c r="H13" t="n">
-        <v>1255.930947771494</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>1314.493874584333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>797.4538513108807</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.2174153782392094</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0.2235444801457199</v>
+      </c>
+      <c r="D14">
         <v>30.35848710322612</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>57.5764313189305</v>
+      </c>
+      <c r="F14">
         <v>35.0561429523354</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>36.73572015232116</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>6.36768989296049</v>
       </c>
-      <c r="H14" t="n">
-        <v>906.1893067899632</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>963.7718672108002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>502.719924614068</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.2898871709856125</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0.2980593068609599</v>
+      </c>
+      <c r="D15">
         <v>30.35848710322612</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>32.20376666991028</v>
+      </c>
+      <c r="F15">
         <v>31.16101595763148</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>26.53135344334306</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>2.547075957184196</v>
       </c>
-      <c r="H15" t="n">
-        <v>593.6077442464384</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>625.819683052224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>295.7790824652415</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.1666851233167272</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0.171384101445052</v>
+      </c>
+      <c r="D16">
         <v>11.03944985571859</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>14.63807575905013</v>
+      </c>
+      <c r="F16">
         <v>28.56426462782885</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>44.89921351950363</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>2.547075957184196</v>
       </c>
-      <c r="H16" t="n">
-        <v>382.9957715487934</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>397.6385462859719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>178.7216364012589</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.1232020476688853</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0.126675205415908</v>
+      </c>
+      <c r="D17">
         <v>2.759862463929648</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>5.85523030362005</v>
+      </c>
+      <c r="F17">
         <v>41.54802127684196</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>42.85834017770804</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17">
         <v>1.273537978592098</v>
       </c>
-      <c r="H17" t="n">
-        <v>267.2846003459995</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>273.1433038073666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>133.7799383588371</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.1884266611406482</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0.1937385494596239</v>
+      </c>
+      <c r="D18">
         <v>5.519724927859295</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>1.951743434540017</v>
+      </c>
+      <c r="F18">
         <v>35.0561429523354</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>30.6131001269343</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>205.1573330271068</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>207.1143883499658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>78.38668263213113</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.08696615129568376</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0.08941779205828798</v>
+      </c>
+      <c r="D19">
         <v>8.279587391788938</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.9758717172700085</v>
+      </c>
+      <c r="F19">
         <v>27.26588896292754</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>44.89921351950363</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>158.9183386576469</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>159.8966620156795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>106.6058883796983</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.06522461347176284</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.06706334404371599</v>
+      </c>
+      <c r="D20">
         <v>8.279587391788938</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>7.806973738160068</v>
+      </c>
+      <c r="F20">
         <v>25.96751329802623</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>24.49048010154743</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>165.4086937845327</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>173.2175062532647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>214.2569325278251</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.1014605098449644</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.104320757401336</v>
+      </c>
+      <c r="D21">
         <v>8.279587391788938</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>4.879358586350041</v>
+      </c>
+      <c r="F21">
         <v>35.0561429523354</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>51.02183354489053</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>3.820613935776294</v>
       </c>
-      <c r="H21" t="n">
-        <v>312.5365708624612</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>317.4187896963676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>635.4547072044762</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.1304492269435257</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.134126688087432</v>
+      </c>
+      <c r="D22">
         <v>52.43738681466332</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>21.46917777994019</v>
+      </c>
+      <c r="F22">
         <v>80.49929122388133</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>97.96192040618973</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>1.273537978592098</v>
       </c>
-      <c r="H22" t="n">
-        <v>867.7572928547462</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>889.2301480958304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1078.600753018124</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.09421333057032409</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.09686927472981197</v>
+      </c>
+      <c r="D23">
         <v>71.75642406217088</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>57.5764313189305</v>
+      </c>
+      <c r="F23">
         <v>110.3619315166115</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>134.6976405585109</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>15.28245574310518</v>
       </c>
-      <c r="H23" t="n">
-        <v>1410.793418229093</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>1468.372505492183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1694.19750062246</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.09421333057032409</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>0.09686927472981197</v>
+      </c>
+      <c r="D24">
         <v>71.75642406217088</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>72.21450707798063</v>
+      </c>
+      <c r="F24">
         <v>164.8937094424665</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>153.0655006346715</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>26.74429755043406</v>
       </c>
-      <c r="H24" t="n">
-        <v>2110.751645642774</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>2182.968808664914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1647.165491043182</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.1594379440420869</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>0.1639326187735279</v>
+      </c>
+      <c r="D25">
         <v>77.27614899003014</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>68.31102020890059</v>
+      </c>
+      <c r="F25">
         <v>137.627820479539</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>183.6786007616059</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>5.094151914368392</v>
       </c>
-      <c r="H25" t="n">
-        <v>2051.001651132768</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>2119.317166016399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1586.546456474334</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.1739323025913675</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0.178835584116576</v>
+      </c>
+      <c r="D26">
         <v>118.6740859489748</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>52.69707273258045</v>
+      </c>
+      <c r="F26">
         <v>273.9572652941767</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>432.6651484606713</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>21.65014563606566</v>
       </c>
-      <c r="H26" t="n">
-        <v>2433.667034116814</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>2486.36901013092</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1294.947997082806</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.1956738404152885</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>0.2011900321311479</v>
+      </c>
+      <c r="D27">
         <v>77.27614899003014</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>51.72120101531047</v>
+      </c>
+      <c r="F27">
         <v>264.8686356398675</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>373.4798215485985</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>16.55599372169727</v>
       </c>
-      <c r="H27" t="n">
-        <v>2027.324270823415</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>2079.050988030441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1391.10232777822</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.347864605182735</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.3576711682331519</v>
+      </c>
+      <c r="D28">
         <v>115.9142234850452</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>57.5764313189305</v>
+      </c>
+      <c r="F28">
         <v>197.3531010649993</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>332.6623547126861</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>11.46184180732888</v>
       </c>
-      <c r="H28" t="n">
-        <v>2048.841713453462</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>2106.427951335443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1257.322389419383</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.1666851233167272</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>0.171384101445052</v>
+      </c>
+      <c r="D29">
         <v>104.8747736293266</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>62.45578990528055</v>
+      </c>
+      <c r="F29">
         <v>173.9823390967757</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>210.2099542049489</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>2.547075957184196</v>
       </c>
-      <c r="H29" t="n">
-        <v>1749.103217430935</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>1811.563706314344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1320.031735525087</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.1811794818660078</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>0.1862870667880999</v>
+      </c>
+      <c r="D30">
         <v>99.35504870146734</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>51.72120101531047</v>
+      </c>
+      <c r="F30">
         <v>267.4653869696701</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>257.1500410662482</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>10.18830382873678</v>
       </c>
-      <c r="H30" t="n">
-        <v>1954.371695573076</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>2006.098004173308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1349.296097041084</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.1811794818660078</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0.1862870667880999</v>
+      </c>
+      <c r="D31">
         <v>104.8747736293266</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>54.64881616712049</v>
+      </c>
+      <c r="F31">
         <v>212.9336090438151</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>238.7821809900876</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>25.47075957184196</v>
       </c>
-      <c r="H31" t="n">
-        <v>1931.538599758021</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>1986.192523510063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1587.591612242761</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.1956738404152885</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>0.2011900321311479</v>
+      </c>
+      <c r="D32">
         <v>66.23669913431151</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>59.52817475347052</v>
+      </c>
+      <c r="F32">
         <v>251.8848789908544</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>224.4960675975184</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>17.82953170028937</v>
       </c>
-      <c r="H32" t="n">
-        <v>2148.23446350615</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>2207.768154451337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1745.410133275453</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.1449435854928063</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>0.1490296534304799</v>
+      </c>
+      <c r="D33">
         <v>182.1509226193567</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>60.50404647074052</v>
+      </c>
+      <c r="F33">
         <v>255.7800059855583</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>214.2917008885402</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>12.73537978592098</v>
       </c>
-      <c r="H33" t="n">
-        <v>2410.513086140322</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>2471.021218679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2127.937144520253</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.1956738404152885</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>0.2011900321311479</v>
+      </c>
+      <c r="D34">
         <v>107.6346360932562</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>61.47991818801056</v>
+      </c>
+      <c r="F34">
         <v>153.2083284583547</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>81.63493367182485</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>28.01783552902615</v>
       </c>
-      <c r="H34" t="n">
-        <v>2498.62855211313</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>2560.113986492857</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2049.550461888122</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.1739323025913675</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>0.178835584116576</v>
+      </c>
+      <c r="D35">
         <v>91.07546130967837</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>72.21450707798063</v>
+      </c>
+      <c r="F35">
         <v>109.0635558517102</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>51.02183354489053</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>5.094151914368392</v>
       </c>
-      <c r="H35" t="n">
-        <v>2305.97939681136</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>2378.198807170867</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1474.714789252494</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.2391569160631303</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0.2458989281602919</v>
+      </c>
+      <c r="D36">
         <v>80.03601145395976</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>68.31102020890059</v>
+      </c>
+      <c r="F36">
         <v>68.81391023976951</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>69.38969362105111</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>2.547075957184196</v>
       </c>
-      <c r="H36" t="n">
-        <v>1695.740637440522</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>1764.05839966152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1063.968572260127</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.3768533222812964</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>0.3874770989192479</v>
+      </c>
+      <c r="D37">
         <v>57.95711174252261</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>58.55230303620051</v>
+      </c>
+      <c r="F37">
         <v>55.8301535907564</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>71.43056696284668</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>6.36768989296049</v>
       </c>
-      <c r="H37" t="n">
-        <v>1255.930947771494</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>1314.493874584333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>797.4538513108807</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.2174153782392094</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>0.2235444801457199</v>
+      </c>
+      <c r="D38">
         <v>30.35848710322612</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>57.5764313189305</v>
+      </c>
+      <c r="F38">
         <v>35.0561429523354</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>36.73572015232116</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>6.36768989296049</v>
       </c>
-      <c r="H38" t="n">
-        <v>906.1893067899632</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>963.7718672108002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>502.719924614068</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.2898871709856125</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>0.2980593068609599</v>
+      </c>
+      <c r="D39">
         <v>30.35848710322612</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>32.20376666991028</v>
+      </c>
+      <c r="F39">
         <v>31.16101595763148</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>26.53135344334306</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>2.547075957184196</v>
       </c>
-      <c r="H39" t="n">
-        <v>593.6077442464384</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>625.819683052224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>295.7790824652415</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.1666851233167272</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0.171384101445052</v>
+      </c>
+      <c r="D40">
         <v>11.03944985571859</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>14.63807575905013</v>
+      </c>
+      <c r="F40">
         <v>28.56426462782885</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>44.89921351950363</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>2.547075957184196</v>
       </c>
-      <c r="H40" t="n">
-        <v>382.9957715487934</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>397.6385462859719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>178.7216364012589</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.1232020476688853</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0.126675205415908</v>
+      </c>
+      <c r="D41">
         <v>2.759862463929648</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>5.85523030362005</v>
+      </c>
+      <c r="F41">
         <v>41.54802127684196</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>42.85834017770804</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>1.273537978592098</v>
       </c>
-      <c r="H41" t="n">
-        <v>267.2846003459995</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>273.1433038073666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>133.7799383588371</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.1884266611406482</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>0.1937385494596239</v>
+      </c>
+      <c r="D42">
         <v>5.519724927859295</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>1.951743434540017</v>
+      </c>
+      <c r="F42">
         <v>35.0561429523354</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>30.6131001269343</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>205.1573330271068</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>207.1143883499658</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>78.38668263213113</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.08696615129568376</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.08941779205828798</v>
+      </c>
+      <c r="D43">
         <v>8.279587391788938</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.9758717172700085</v>
+      </c>
+      <c r="F43">
         <v>27.26588896292754</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>44.89921351950363</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>158.9183386576469</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>159.8966620156795</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>106.6058883796983</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.06522461347176284</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>0.06706334404371599</v>
+      </c>
+      <c r="D44">
         <v>8.279587391788938</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>7.806973738160068</v>
+      </c>
+      <c r="F44">
         <v>25.96751329802623</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>24.49048010154743</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>165.4086937845327</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>173.2175062532647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>214.2569325278251</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.1014605098449644</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.104320757401336</v>
+      </c>
+      <c r="D45">
         <v>8.279587391788938</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>4.879358586350041</v>
+      </c>
+      <c r="F45">
         <v>35.0561429523354</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>51.02183354489053</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>3.820613935776294</v>
       </c>
-      <c r="H45" t="n">
-        <v>312.5365708624612</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>317.4187896963676</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>635.4547072044762</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.1304492269435257</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.134126688087432</v>
+      </c>
+      <c r="D46">
         <v>52.43738681466332</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>21.46917777994019</v>
+      </c>
+      <c r="F46">
         <v>80.49929122388133</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>97.96192040618973</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>1.273537978592098</v>
       </c>
-      <c r="H46" t="n">
-        <v>867.7572928547462</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>889.2301480958304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1078.600753018124</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.09421333057032409</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>0.09686927472981197</v>
+      </c>
+      <c r="D47">
         <v>71.75642406217088</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>57.5764313189305</v>
+      </c>
+      <c r="F47">
         <v>110.3619315166115</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>134.6976405585109</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>15.28245574310518</v>
       </c>
-      <c r="H47" t="n">
-        <v>1410.793418229093</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>1468.372505492183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1694.19750062246</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.09421333057032409</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>0.09686927472981197</v>
+      </c>
+      <c r="D48">
         <v>71.75642406217088</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>72.21450707798063</v>
+      </c>
+      <c r="F48">
         <v>164.8937094424665</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>153.0655006346715</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>26.74429755043406</v>
       </c>
-      <c r="H48" t="n">
-        <v>2110.751645642774</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>2182.968808664914</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1647.165491043182</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.1594379440420869</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>0.1639326187735279</v>
+      </c>
+      <c r="D49">
         <v>77.27614899003014</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>68.31102020890059</v>
+      </c>
+      <c r="F49">
         <v>137.627820479539</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>183.6786007616059</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>5.094151914368392</v>
       </c>
-      <c r="H49" t="n">
-        <v>2051.001651132768</v>
+      <c r="I49">
+        <v>2119.317166016399</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_NOx.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1586.546456474334</v>
+        <v>2690.230947934739</v>
       </c>
       <c r="C2">
-        <v>0.178835584116576</v>
+        <v>0.3032429469802809</v>
       </c>
       <c r="D2">
-        <v>118.6740859489748</v>
+        <v>201.2299718265226</v>
       </c>
       <c r="E2">
-        <v>52.69707273258045</v>
+        <v>89.35590593785382</v>
       </c>
       <c r="F2">
-        <v>273.9572652941767</v>
+        <v>464.5362324553431</v>
       </c>
       <c r="G2">
-        <v>432.6651484606713</v>
+        <v>733.6495995637473</v>
       </c>
       <c r="H2">
-        <v>21.65014563606566</v>
+        <v>36.71111651332873</v>
       </c>
       <c r="I2">
-        <v>2486.36901013092</v>
+        <v>4216.017017178515</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1179.98086255568</v>
+        <v>2000.837114768328</v>
       </c>
       <c r="C3">
-        <v>0.1862870667880999</v>
+        <v>0.315878069771126</v>
       </c>
       <c r="D3">
-        <v>115.9142234850452</v>
+        <v>196.5502050398594</v>
       </c>
       <c r="E3">
-        <v>37.08312525626032</v>
+        <v>62.8800819562675</v>
       </c>
       <c r="F3">
-        <v>285.6426462782886</v>
+        <v>484.3505741240544</v>
       </c>
       <c r="G3">
-        <v>304.0901279275474</v>
+        <v>515.6310864858413</v>
       </c>
       <c r="H3">
-        <v>16.55599372169727</v>
+        <v>28.07320674548668</v>
       </c>
       <c r="I3">
-        <v>1939.453266291307</v>
+        <v>3288.638147189608</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1276.135193251095</v>
+        <v>2163.881414643161</v>
       </c>
       <c r="C4">
-        <v>0.2011900321311479</v>
+        <v>0.3411483153528161</v>
       </c>
       <c r="D4">
-        <v>96.59518623753767</v>
+        <v>163.7918375332161</v>
       </c>
       <c r="E4">
-        <v>52.69707273258045</v>
+        <v>89.35590593785382</v>
       </c>
       <c r="F4">
-        <v>235.0059953471373</v>
+        <v>398.4884268929722</v>
       </c>
       <c r="G4">
-        <v>300.0083812439563</v>
+        <v>508.7098638484473</v>
       </c>
       <c r="H4">
-        <v>7.641227871552588</v>
+        <v>12.95686465176308</v>
       </c>
       <c r="I4">
-        <v>1968.284246715991</v>
+        <v>3337.525461822766</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1189.387264471536</v>
+        <v>2016.787100625649</v>
       </c>
       <c r="C5">
-        <v>0.2458989281602919</v>
+        <v>0.4169590520978863</v>
       </c>
       <c r="D5">
-        <v>126.9536733407639</v>
+        <v>215.2692721865125</v>
       </c>
       <c r="E5">
-        <v>42.93835555988038</v>
+        <v>72.80851594936237</v>
       </c>
       <c r="F5">
-        <v>197.3531010649993</v>
+        <v>334.6422148493468</v>
       </c>
       <c r="G5">
-        <v>271.4361544588174</v>
+        <v>460.2613053866905</v>
       </c>
       <c r="H5">
-        <v>14.00891776451308</v>
+        <v>23.75425186156565</v>
       </c>
       <c r="I5">
-        <v>1842.32336558867</v>
+        <v>3123.939619911224</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1235.374118282387</v>
+        <v>2094.764809261438</v>
       </c>
       <c r="C6">
-        <v>0.2980593068609599</v>
+        <v>0.5054049116338016</v>
       </c>
       <c r="D6">
-        <v>107.6346360932562</v>
+        <v>182.5109046798692</v>
       </c>
       <c r="E6">
-        <v>55.62468788439049</v>
+        <v>94.32012293440125</v>
       </c>
       <c r="F6">
-        <v>228.5141170226308</v>
+        <v>387.4804592992436</v>
       </c>
       <c r="G6">
-        <v>281.6405211677957</v>
+        <v>477.5643619801752</v>
       </c>
       <c r="H6">
-        <v>15.28245574310518</v>
+        <v>25.91372930352616</v>
       </c>
       <c r="I6">
-        <v>1924.368595500426</v>
+        <v>3263.059792370288</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1214.471002913818</v>
+        <v>2059.320396245171</v>
       </c>
       <c r="C7">
-        <v>0.238447445488768</v>
+        <v>0.4043239293070413</v>
       </c>
       <c r="D7">
-        <v>132.473398268623</v>
+        <v>224.6288057598392</v>
       </c>
       <c r="E7">
-        <v>41.96248384261035</v>
+        <v>71.1537769505132</v>
       </c>
       <c r="F7">
-        <v>257.0783816504597</v>
+        <v>435.9155167116491</v>
       </c>
       <c r="G7">
-        <v>287.7631411931823</v>
+        <v>487.9461959362661</v>
       </c>
       <c r="H7">
-        <v>14.00891776451308</v>
+        <v>23.75425186156565</v>
       </c>
       <c r="I7">
-        <v>1947.995773078695</v>
+        <v>3303.12326739431</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1279.27066055638</v>
+        <v>2169.1980765956</v>
       </c>
       <c r="C8">
-        <v>0.2608018935033399</v>
+        <v>0.4422292976795764</v>
       </c>
       <c r="D8">
-        <v>91.07546130967837</v>
+        <v>154.4323039598894</v>
       </c>
       <c r="E8">
-        <v>44.89009899442039</v>
+        <v>76.11799394706064</v>
       </c>
       <c r="F8">
-        <v>231.1108683524334</v>
+        <v>391.883646336735</v>
       </c>
       <c r="G8">
-        <v>220.4143209139271</v>
+        <v>373.7460224192675</v>
       </c>
       <c r="H8">
-        <v>17.82953170028937</v>
+        <v>30.23268418744719</v>
       </c>
       <c r="I8">
-        <v>1884.851743720632</v>
+        <v>3196.05295674368</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1745.410133275453</v>
+        <v>2959.608486858378</v>
       </c>
       <c r="C9">
-        <v>0.1490296534304799</v>
+        <v>0.2527024558169008</v>
       </c>
       <c r="D9">
-        <v>182.1509226193567</v>
+        <v>308.8646079197788</v>
       </c>
       <c r="E9">
-        <v>60.50404647074052</v>
+        <v>102.593817928647</v>
       </c>
       <c r="F9">
-        <v>255.7800059855583</v>
+        <v>433.713923192903</v>
       </c>
       <c r="G9">
-        <v>214.2917008885402</v>
+        <v>363.3641884631768</v>
       </c>
       <c r="H9">
-        <v>12.73537978592098</v>
+        <v>21.59477441960514</v>
       </c>
       <c r="I9">
-        <v>2471.021218679</v>
+        <v>4189.992501238306</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2127.937144520253</v>
+        <v>3608.241245056079</v>
       </c>
       <c r="C10">
-        <v>0.2011900321311479</v>
+        <v>0.3411483153528161</v>
       </c>
       <c r="D10">
-        <v>107.6346360932562</v>
+        <v>182.5109046798692</v>
       </c>
       <c r="E10">
-        <v>61.47991818801056</v>
+        <v>104.2485569274961</v>
       </c>
       <c r="F10">
-        <v>153.2083284583547</v>
+        <v>259.788035211993</v>
       </c>
       <c r="G10">
-        <v>81.63493367182485</v>
+        <v>138.4244527478769</v>
       </c>
       <c r="H10">
-        <v>28.01783552902615</v>
+        <v>47.5085037231313</v>
       </c>
       <c r="I10">
-        <v>2560.113986492857</v>
+        <v>4341.062846661798</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2049.550461888122</v>
+        <v>3475.324696245078</v>
       </c>
       <c r="C11">
-        <v>0.178835584116576</v>
+        <v>0.3032429469802809</v>
       </c>
       <c r="D11">
-        <v>91.07546130967837</v>
+        <v>154.4323039598894</v>
       </c>
       <c r="E11">
-        <v>72.21450707798063</v>
+        <v>122.4506859148367</v>
       </c>
       <c r="F11">
-        <v>109.0635558517102</v>
+        <v>184.933855574639</v>
       </c>
       <c r="G11">
-        <v>51.02183354489053</v>
+        <v>86.51528296742305</v>
       </c>
       <c r="H11">
-        <v>5.094151914368392</v>
+        <v>8.637909767842055</v>
       </c>
       <c r="I11">
-        <v>2378.198807170867</v>
+        <v>4032.597977376689</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1474.714789252494</v>
+        <v>2500.603338297707</v>
       </c>
       <c r="C12">
-        <v>0.2458989281602919</v>
+        <v>0.4169590520978863</v>
       </c>
       <c r="D12">
-        <v>80.03601145395976</v>
+        <v>135.7132368132361</v>
       </c>
       <c r="E12">
-        <v>68.31102020890059</v>
+        <v>115.8317299194401</v>
       </c>
       <c r="F12">
-        <v>68.81391023976951</v>
+        <v>116.6844564935221</v>
       </c>
       <c r="G12">
-        <v>69.38969362105111</v>
+        <v>117.6607848356953</v>
       </c>
       <c r="H12">
-        <v>2.547075957184196</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I12">
-        <v>1764.05839966152</v>
+        <v>2991.229460295619</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1063.968572260127</v>
+        <v>1804.120622528039</v>
       </c>
       <c r="C13">
-        <v>0.3874770989192479</v>
+        <v>0.6570263851239422</v>
       </c>
       <c r="D13">
-        <v>57.95711174252261</v>
+        <v>98.27510251992969</v>
       </c>
       <c r="E13">
-        <v>58.55230303620051</v>
+        <v>99.2843399309487</v>
       </c>
       <c r="F13">
-        <v>55.8301535907564</v>
+        <v>94.66852130606522</v>
       </c>
       <c r="G13">
-        <v>71.43056696284668</v>
+        <v>121.1213961543923</v>
       </c>
       <c r="H13">
-        <v>6.36768989296049</v>
+        <v>10.79738720980257</v>
       </c>
       <c r="I13">
-        <v>1314.493874584333</v>
+        <v>2228.924396034302</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>797.4538513108807</v>
+        <v>1352.204356570624</v>
       </c>
       <c r="C14">
-        <v>0.2235444801457199</v>
+        <v>0.3790536837253511</v>
       </c>
       <c r="D14">
-        <v>30.35848710322612</v>
+        <v>51.47743465329648</v>
       </c>
       <c r="E14">
-        <v>57.5764313189305</v>
+        <v>97.62960093209955</v>
       </c>
       <c r="F14">
-        <v>35.0561429523354</v>
+        <v>59.44302500613398</v>
       </c>
       <c r="G14">
-        <v>36.73572015232116</v>
+        <v>62.29100373654457</v>
       </c>
       <c r="H14">
-        <v>6.36768989296049</v>
+        <v>10.79738720980257</v>
       </c>
       <c r="I14">
-        <v>963.7718672108002</v>
+        <v>1634.221861792226</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>502.719924614068</v>
+        <v>852.4381330412448</v>
       </c>
       <c r="C15">
-        <v>0.2980593068609599</v>
+        <v>0.5054049116338016</v>
       </c>
       <c r="D15">
-        <v>30.35848710322612</v>
+        <v>51.47743465329648</v>
       </c>
       <c r="E15">
-        <v>32.20376666991028</v>
+        <v>54.60638696202177</v>
       </c>
       <c r="F15">
-        <v>31.16101595763148</v>
+        <v>52.83824444989686</v>
       </c>
       <c r="G15">
-        <v>26.53135344334306</v>
+        <v>44.98794714305999</v>
       </c>
       <c r="H15">
-        <v>2.547075957184196</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I15">
-        <v>625.819683052224</v>
+        <v>1061.172506045075</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>295.7790824652415</v>
+        <v>501.5384441801916</v>
       </c>
       <c r="C16">
-        <v>0.171384101445052</v>
+        <v>0.2906078241894359</v>
       </c>
       <c r="D16">
-        <v>11.03944985571859</v>
+        <v>18.71906714665326</v>
       </c>
       <c r="E16">
-        <v>14.63807575905013</v>
+        <v>24.82108498273718</v>
       </c>
       <c r="F16">
-        <v>28.56426462782885</v>
+        <v>48.43505741240545</v>
       </c>
       <c r="G16">
-        <v>44.89921351950363</v>
+        <v>76.13344901133226</v>
       </c>
       <c r="H16">
-        <v>2.547075957184196</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I16">
-        <v>397.6385462859719</v>
+        <v>674.2566654414301</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>178.7216364012589</v>
+        <v>303.0497312890913</v>
       </c>
       <c r="C17">
-        <v>0.126675205415908</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D17">
-        <v>2.759862463929648</v>
+        <v>4.679766786663316</v>
       </c>
       <c r="E17">
-        <v>5.85523030362005</v>
+        <v>9.928433993094867</v>
       </c>
       <c r="F17">
-        <v>41.54802127684196</v>
+        <v>70.45099259986249</v>
       </c>
       <c r="G17">
-        <v>42.85834017770804</v>
+        <v>72.67283769263537</v>
       </c>
       <c r="H17">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I17">
-        <v>273.1433038073666</v>
+        <v>463.1560368907522</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>133.7799383588371</v>
+        <v>226.8442433041151</v>
       </c>
       <c r="C18">
-        <v>0.1937385494596239</v>
+        <v>0.3285131925619711</v>
       </c>
       <c r="D18">
-        <v>5.519724927859295</v>
+        <v>9.359533573326631</v>
       </c>
       <c r="E18">
-        <v>1.951743434540017</v>
+        <v>3.30947799769829</v>
       </c>
       <c r="F18">
-        <v>35.0561429523354</v>
+        <v>59.44302500613398</v>
       </c>
       <c r="G18">
-        <v>30.6131001269343</v>
+        <v>51.90916978045384</v>
       </c>
       <c r="I18">
-        <v>207.1143883499658</v>
+        <v>351.1939628542899</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>78.38668263213113</v>
+        <v>132.916548811005</v>
       </c>
       <c r="C19">
-        <v>0.08941779205828798</v>
+        <v>0.1516214734901405</v>
       </c>
       <c r="D19">
-        <v>8.279587391788938</v>
+        <v>14.03930035998995</v>
       </c>
       <c r="E19">
-        <v>0.9758717172700085</v>
+        <v>1.654738998849145</v>
       </c>
       <c r="F19">
-        <v>27.26588896292754</v>
+        <v>46.23346389365974</v>
       </c>
       <c r="G19">
-        <v>44.89921351950363</v>
+        <v>76.13344901133226</v>
       </c>
       <c r="I19">
-        <v>159.8966620156795</v>
+        <v>271.1291225483262</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>106.6058883796983</v>
+        <v>180.7665063829668</v>
       </c>
       <c r="C20">
-        <v>0.06706334404371599</v>
+        <v>0.1137161051176053</v>
       </c>
       <c r="D20">
-        <v>8.279587391788938</v>
+        <v>14.03930035998995</v>
       </c>
       <c r="E20">
-        <v>7.806973738160068</v>
+        <v>13.23791199079316</v>
       </c>
       <c r="F20">
-        <v>25.96751329802623</v>
+        <v>44.03187037491404</v>
       </c>
       <c r="G20">
-        <v>24.49048010154743</v>
+        <v>41.52733582436305</v>
       </c>
       <c r="I20">
-        <v>173.2175062532647</v>
+        <v>293.7166410381446</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>214.2569325278251</v>
+        <v>363.3052334167468</v>
       </c>
       <c r="C21">
-        <v>0.104320757401336</v>
+        <v>0.1768917190718305</v>
       </c>
       <c r="D21">
-        <v>8.279587391788938</v>
+        <v>14.03930035998995</v>
       </c>
       <c r="E21">
-        <v>4.879358586350041</v>
+        <v>8.273694994245725</v>
       </c>
       <c r="F21">
-        <v>35.0561429523354</v>
+        <v>59.44302500613398</v>
       </c>
       <c r="G21">
-        <v>51.02183354489053</v>
+        <v>86.51528296742305</v>
       </c>
       <c r="H21">
-        <v>3.820613935776294</v>
+        <v>6.478432325881541</v>
       </c>
       <c r="I21">
-        <v>317.4187896963676</v>
+        <v>538.2318607894928</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>635.4547072044762</v>
+        <v>1077.510155694547</v>
       </c>
       <c r="C22">
-        <v>0.134126688087432</v>
+        <v>0.2274322102352107</v>
       </c>
       <c r="D22">
-        <v>52.43738681466332</v>
+        <v>88.91556894660299</v>
       </c>
       <c r="E22">
-        <v>21.46917777994019</v>
+        <v>36.40425797468119</v>
       </c>
       <c r="F22">
-        <v>80.49929122388133</v>
+        <v>136.4987981622335</v>
       </c>
       <c r="G22">
-        <v>97.96192040618973</v>
+        <v>166.1093432974522</v>
       </c>
       <c r="H22">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I22">
-        <v>889.2301480958304</v>
+        <v>1507.825033727713</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1078.600753018124</v>
+        <v>1828.931711639429</v>
       </c>
       <c r="C23">
-        <v>0.09686927472981197</v>
+        <v>0.1642565962809855</v>
       </c>
       <c r="D23">
-        <v>71.75642406217088</v>
+        <v>121.6739364532462</v>
       </c>
       <c r="E23">
-        <v>57.5764313189305</v>
+        <v>97.62960093209955</v>
       </c>
       <c r="F23">
-        <v>110.3619315166115</v>
+        <v>187.1354490933846</v>
       </c>
       <c r="G23">
-        <v>134.6976405585109</v>
+        <v>228.4003470339969</v>
       </c>
       <c r="H23">
-        <v>15.28245574310518</v>
+        <v>25.91372930352616</v>
       </c>
       <c r="I23">
-        <v>1468.372505492183</v>
+        <v>2489.849031051962</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1694.19750062246</v>
+        <v>2872.769674968521</v>
       </c>
       <c r="C24">
-        <v>0.09686927472981197</v>
+        <v>0.1642565962809855</v>
       </c>
       <c r="D24">
-        <v>71.75642406217088</v>
+        <v>121.6739364532462</v>
       </c>
       <c r="E24">
-        <v>72.21450707798063</v>
+        <v>122.4506859148367</v>
       </c>
       <c r="F24">
-        <v>164.8937094424665</v>
+        <v>279.6023768807042</v>
       </c>
       <c r="G24">
-        <v>153.0655006346715</v>
+        <v>259.5458489022691</v>
       </c>
       <c r="H24">
-        <v>26.74429755043406</v>
+        <v>45.34902628117079</v>
       </c>
       <c r="I24">
-        <v>2182.968808664914</v>
+        <v>3701.555805997029</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1647.165491043182</v>
+        <v>2793.019745681918</v>
       </c>
       <c r="C25">
-        <v>0.1639326187735279</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D25">
-        <v>77.27614899003014</v>
+        <v>131.0334700265728</v>
       </c>
       <c r="E25">
-        <v>68.31102020890059</v>
+        <v>115.8317299194401</v>
       </c>
       <c r="F25">
-        <v>137.627820479539</v>
+        <v>233.3689129870443</v>
       </c>
       <c r="G25">
-        <v>183.6786007616059</v>
+        <v>311.4550186827229</v>
       </c>
       <c r="H25">
-        <v>5.094151914368392</v>
+        <v>8.637909767842055</v>
       </c>
       <c r="I25">
-        <v>2119.317166016399</v>
+        <v>3593.624759766938</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1586.546456474334</v>
+        <v>2690.230947934739</v>
       </c>
       <c r="C26">
-        <v>0.178835584116576</v>
+        <v>0.3032429469802809</v>
       </c>
       <c r="D26">
-        <v>118.6740859489748</v>
+        <v>201.2299718265226</v>
       </c>
       <c r="E26">
-        <v>52.69707273258045</v>
+        <v>89.35590593785382</v>
       </c>
       <c r="F26">
-        <v>273.9572652941767</v>
+        <v>464.5362324553431</v>
       </c>
       <c r="G26">
-        <v>432.6651484606713</v>
+        <v>733.6495995637473</v>
       </c>
       <c r="H26">
-        <v>21.65014563606566</v>
+        <v>36.71111651332873</v>
       </c>
       <c r="I26">
-        <v>2486.36901013092</v>
+        <v>4216.017017178515</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1294.947997082806</v>
+        <v>2195.781386357802</v>
       </c>
       <c r="C27">
-        <v>0.2011900321311479</v>
+        <v>0.3411483153528161</v>
       </c>
       <c r="D27">
-        <v>77.27614899003014</v>
+        <v>131.0334700265728</v>
       </c>
       <c r="E27">
-        <v>51.72120101531047</v>
+        <v>87.70116693900468</v>
       </c>
       <c r="F27">
-        <v>264.8686356398675</v>
+        <v>449.1250778241231</v>
       </c>
       <c r="G27">
-        <v>373.4798215485985</v>
+        <v>633.2918713215367</v>
       </c>
       <c r="H27">
-        <v>16.55599372169727</v>
+        <v>28.07320674548668</v>
       </c>
       <c r="I27">
-        <v>2079.050988030441</v>
+        <v>3525.347327529878</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1391.10232777822</v>
+        <v>2358.825686232634</v>
       </c>
       <c r="C28">
-        <v>0.3576711682331519</v>
+        <v>0.6064858939605619</v>
       </c>
       <c r="D28">
-        <v>115.9142234850452</v>
+        <v>196.5502050398594</v>
       </c>
       <c r="E28">
-        <v>57.5764313189305</v>
+        <v>97.62960093209955</v>
       </c>
       <c r="F28">
-        <v>197.3531010649993</v>
+        <v>334.6422148493468</v>
       </c>
       <c r="G28">
-        <v>332.6623547126861</v>
+        <v>564.0796449475986</v>
       </c>
       <c r="H28">
-        <v>11.46184180732888</v>
+        <v>19.43529697764462</v>
       </c>
       <c r="I28">
-        <v>2106.427951335443</v>
+        <v>3571.769134873144</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1257.322389419383</v>
+        <v>2131.981442928519</v>
       </c>
       <c r="C29">
-        <v>0.171384101445052</v>
+        <v>0.2906078241894359</v>
       </c>
       <c r="D29">
-        <v>104.8747736293266</v>
+        <v>177.831137893206</v>
       </c>
       <c r="E29">
-        <v>62.45578990528055</v>
+        <v>105.9032959263453</v>
       </c>
       <c r="F29">
-        <v>173.9823390967757</v>
+        <v>295.0135315119239</v>
       </c>
       <c r="G29">
-        <v>210.2099542049489</v>
+        <v>356.4429658257829</v>
       </c>
       <c r="H29">
-        <v>2.547075957184196</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I29">
-        <v>1811.563706314344</v>
+        <v>3071.781936793888</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1320.031735525087</v>
+        <v>2238.314681977324</v>
       </c>
       <c r="C30">
-        <v>0.1862870667880999</v>
+        <v>0.315878069771126</v>
       </c>
       <c r="D30">
-        <v>99.35504870146734</v>
+        <v>168.4716043198794</v>
       </c>
       <c r="E30">
-        <v>51.72120101531047</v>
+        <v>87.70116693900468</v>
       </c>
       <c r="F30">
-        <v>267.4653869696701</v>
+        <v>453.5282648616147</v>
       </c>
       <c r="G30">
-        <v>257.1500410662482</v>
+        <v>436.0370261558119</v>
       </c>
       <c r="H30">
-        <v>10.18830382873678</v>
+        <v>17.27581953568411</v>
       </c>
       <c r="I30">
-        <v>2006.098004173308</v>
+        <v>3401.64444185909</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1349.296097041084</v>
+        <v>2287.936860200099</v>
       </c>
       <c r="C31">
-        <v>0.1862870667880999</v>
+        <v>0.315878069771126</v>
       </c>
       <c r="D31">
-        <v>104.8747736293266</v>
+        <v>177.831137893206</v>
       </c>
       <c r="E31">
-        <v>54.64881616712049</v>
+        <v>92.66538393555211</v>
       </c>
       <c r="F31">
-        <v>212.9336090438151</v>
+        <v>361.061337074295</v>
       </c>
       <c r="G31">
-        <v>238.7821809900876</v>
+        <v>404.89152428754</v>
       </c>
       <c r="H31">
-        <v>25.47075957184196</v>
+        <v>43.18954883921027</v>
       </c>
       <c r="I31">
-        <v>1986.192523510063</v>
+        <v>3367.891670299673</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1587.591612242761</v>
+        <v>2692.003168585554</v>
       </c>
       <c r="C32">
-        <v>0.2011900321311479</v>
+        <v>0.3411483153528161</v>
       </c>
       <c r="D32">
-        <v>66.23669913431151</v>
+        <v>112.3144028799196</v>
       </c>
       <c r="E32">
-        <v>59.52817475347052</v>
+        <v>100.9390789297978</v>
       </c>
       <c r="F32">
-        <v>251.8848789908544</v>
+        <v>427.1091426366661</v>
       </c>
       <c r="G32">
-        <v>224.4960675975184</v>
+        <v>380.6672450566614</v>
       </c>
       <c r="H32">
-        <v>17.82953170028937</v>
+        <v>30.23268418744719</v>
       </c>
       <c r="I32">
-        <v>2207.768154451337</v>
+        <v>3743.606870591399</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1745.410133275453</v>
+        <v>2959.608486858378</v>
       </c>
       <c r="C33">
-        <v>0.1490296534304799</v>
+        <v>0.2527024558169008</v>
       </c>
       <c r="D33">
-        <v>182.1509226193567</v>
+        <v>308.8646079197788</v>
       </c>
       <c r="E33">
-        <v>60.50404647074052</v>
+        <v>102.593817928647</v>
       </c>
       <c r="F33">
-        <v>255.7800059855583</v>
+        <v>433.713923192903</v>
       </c>
       <c r="G33">
-        <v>214.2917008885402</v>
+        <v>363.3641884631768</v>
       </c>
       <c r="H33">
-        <v>12.73537978592098</v>
+        <v>21.59477441960514</v>
       </c>
       <c r="I33">
-        <v>2471.021218679</v>
+        <v>4189.992501238306</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2127.937144520253</v>
+        <v>3608.241245056079</v>
       </c>
       <c r="C34">
-        <v>0.2011900321311479</v>
+        <v>0.3411483153528161</v>
       </c>
       <c r="D34">
-        <v>107.6346360932562</v>
+        <v>182.5109046798692</v>
       </c>
       <c r="E34">
-        <v>61.47991818801056</v>
+        <v>104.2485569274961</v>
       </c>
       <c r="F34">
-        <v>153.2083284583547</v>
+        <v>259.788035211993</v>
       </c>
       <c r="G34">
-        <v>81.63493367182485</v>
+        <v>138.4244527478769</v>
       </c>
       <c r="H34">
-        <v>28.01783552902615</v>
+        <v>47.5085037231313</v>
       </c>
       <c r="I34">
-        <v>2560.113986492857</v>
+        <v>4341.062846661798</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2049.550461888122</v>
+        <v>3475.324696245078</v>
       </c>
       <c r="C35">
-        <v>0.178835584116576</v>
+        <v>0.3032429469802809</v>
       </c>
       <c r="D35">
-        <v>91.07546130967837</v>
+        <v>154.4323039598894</v>
       </c>
       <c r="E35">
-        <v>72.21450707798063</v>
+        <v>122.4506859148367</v>
       </c>
       <c r="F35">
-        <v>109.0635558517102</v>
+        <v>184.933855574639</v>
       </c>
       <c r="G35">
-        <v>51.02183354489053</v>
+        <v>86.51528296742305</v>
       </c>
       <c r="H35">
-        <v>5.094151914368392</v>
+        <v>8.637909767842055</v>
       </c>
       <c r="I35">
-        <v>2378.198807170867</v>
+        <v>4032.597977376689</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1474.714789252494</v>
+        <v>2500.603338297707</v>
       </c>
       <c r="C36">
-        <v>0.2458989281602919</v>
+        <v>0.4169590520978863</v>
       </c>
       <c r="D36">
-        <v>80.03601145395976</v>
+        <v>135.7132368132361</v>
       </c>
       <c r="E36">
-        <v>68.31102020890059</v>
+        <v>115.8317299194401</v>
       </c>
       <c r="F36">
-        <v>68.81391023976951</v>
+        <v>116.6844564935221</v>
       </c>
       <c r="G36">
-        <v>69.38969362105111</v>
+        <v>117.6607848356953</v>
       </c>
       <c r="H36">
-        <v>2.547075957184196</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I36">
-        <v>1764.05839966152</v>
+        <v>2991.229460295619</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1063.968572260127</v>
+        <v>1804.120622528039</v>
       </c>
       <c r="C37">
-        <v>0.3874770989192479</v>
+        <v>0.6570263851239422</v>
       </c>
       <c r="D37">
-        <v>57.95711174252261</v>
+        <v>98.27510251992969</v>
       </c>
       <c r="E37">
-        <v>58.55230303620051</v>
+        <v>99.2843399309487</v>
       </c>
       <c r="F37">
-        <v>55.8301535907564</v>
+        <v>94.66852130606522</v>
       </c>
       <c r="G37">
-        <v>71.43056696284668</v>
+        <v>121.1213961543923</v>
       </c>
       <c r="H37">
-        <v>6.36768989296049</v>
+        <v>10.79738720980257</v>
       </c>
       <c r="I37">
-        <v>1314.493874584333</v>
+        <v>2228.924396034302</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>797.4538513108807</v>
+        <v>1352.204356570624</v>
       </c>
       <c r="C38">
-        <v>0.2235444801457199</v>
+        <v>0.3790536837253511</v>
       </c>
       <c r="D38">
-        <v>30.35848710322612</v>
+        <v>51.47743465329648</v>
       </c>
       <c r="E38">
-        <v>57.5764313189305</v>
+        <v>97.62960093209955</v>
       </c>
       <c r="F38">
-        <v>35.0561429523354</v>
+        <v>59.44302500613398</v>
       </c>
       <c r="G38">
-        <v>36.73572015232116</v>
+        <v>62.29100373654457</v>
       </c>
       <c r="H38">
-        <v>6.36768989296049</v>
+        <v>10.79738720980257</v>
       </c>
       <c r="I38">
-        <v>963.7718672108002</v>
+        <v>1634.221861792226</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>502.719924614068</v>
+        <v>852.4381330412448</v>
       </c>
       <c r="C39">
-        <v>0.2980593068609599</v>
+        <v>0.5054049116338016</v>
       </c>
       <c r="D39">
-        <v>30.35848710322612</v>
+        <v>51.47743465329648</v>
       </c>
       <c r="E39">
-        <v>32.20376666991028</v>
+        <v>54.60638696202177</v>
       </c>
       <c r="F39">
-        <v>31.16101595763148</v>
+        <v>52.83824444989686</v>
       </c>
       <c r="G39">
-        <v>26.53135344334306</v>
+        <v>44.98794714305999</v>
       </c>
       <c r="H39">
-        <v>2.547075957184196</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I39">
-        <v>625.819683052224</v>
+        <v>1061.172506045075</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>295.7790824652415</v>
+        <v>501.5384441801916</v>
       </c>
       <c r="C40">
-        <v>0.171384101445052</v>
+        <v>0.2906078241894359</v>
       </c>
       <c r="D40">
-        <v>11.03944985571859</v>
+        <v>18.71906714665326</v>
       </c>
       <c r="E40">
-        <v>14.63807575905013</v>
+        <v>24.82108498273718</v>
       </c>
       <c r="F40">
-        <v>28.56426462782885</v>
+        <v>48.43505741240545</v>
       </c>
       <c r="G40">
-        <v>44.89921351950363</v>
+        <v>76.13344901133226</v>
       </c>
       <c r="H40">
-        <v>2.547075957184196</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I40">
-        <v>397.6385462859719</v>
+        <v>674.2566654414301</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>178.7216364012589</v>
+        <v>303.0497312890913</v>
       </c>
       <c r="C41">
-        <v>0.126675205415908</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D41">
-        <v>2.759862463929648</v>
+        <v>4.679766786663316</v>
       </c>
       <c r="E41">
-        <v>5.85523030362005</v>
+        <v>9.928433993094867</v>
       </c>
       <c r="F41">
-        <v>41.54802127684196</v>
+        <v>70.45099259986249</v>
       </c>
       <c r="G41">
-        <v>42.85834017770804</v>
+        <v>72.67283769263537</v>
       </c>
       <c r="H41">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I41">
-        <v>273.1433038073666</v>
+        <v>463.1560368907522</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>133.7799383588371</v>
+        <v>226.8442433041151</v>
       </c>
       <c r="C42">
-        <v>0.1937385494596239</v>
+        <v>0.3285131925619711</v>
       </c>
       <c r="D42">
-        <v>5.519724927859295</v>
+        <v>9.359533573326631</v>
       </c>
       <c r="E42">
-        <v>1.951743434540017</v>
+        <v>3.30947799769829</v>
       </c>
       <c r="F42">
-        <v>35.0561429523354</v>
+        <v>59.44302500613398</v>
       </c>
       <c r="G42">
-        <v>30.6131001269343</v>
+        <v>51.90916978045384</v>
       </c>
       <c r="I42">
-        <v>207.1143883499658</v>
+        <v>351.1939628542899</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>78.38668263213113</v>
+        <v>132.916548811005</v>
       </c>
       <c r="C43">
-        <v>0.08941779205828798</v>
+        <v>0.1516214734901405</v>
       </c>
       <c r="D43">
-        <v>8.279587391788938</v>
+        <v>14.03930035998995</v>
       </c>
       <c r="E43">
-        <v>0.9758717172700085</v>
+        <v>1.654738998849145</v>
       </c>
       <c r="F43">
-        <v>27.26588896292754</v>
+        <v>46.23346389365974</v>
       </c>
       <c r="G43">
-        <v>44.89921351950363</v>
+        <v>76.13344901133226</v>
       </c>
       <c r="I43">
-        <v>159.8966620156795</v>
+        <v>271.1291225483262</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>106.6058883796983</v>
+        <v>180.7665063829668</v>
       </c>
       <c r="C44">
-        <v>0.06706334404371599</v>
+        <v>0.1137161051176053</v>
       </c>
       <c r="D44">
-        <v>8.279587391788938</v>
+        <v>14.03930035998995</v>
       </c>
       <c r="E44">
-        <v>7.806973738160068</v>
+        <v>13.23791199079316</v>
       </c>
       <c r="F44">
-        <v>25.96751329802623</v>
+        <v>44.03187037491404</v>
       </c>
       <c r="G44">
-        <v>24.49048010154743</v>
+        <v>41.52733582436305</v>
       </c>
       <c r="I44">
-        <v>173.2175062532647</v>
+        <v>293.7166410381446</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>214.2569325278251</v>
+        <v>363.3052334167468</v>
       </c>
       <c r="C45">
-        <v>0.104320757401336</v>
+        <v>0.1768917190718305</v>
       </c>
       <c r="D45">
-        <v>8.279587391788938</v>
+        <v>14.03930035998995</v>
       </c>
       <c r="E45">
-        <v>4.879358586350041</v>
+        <v>8.273694994245725</v>
       </c>
       <c r="F45">
-        <v>35.0561429523354</v>
+        <v>59.44302500613398</v>
       </c>
       <c r="G45">
-        <v>51.02183354489053</v>
+        <v>86.51528296742305</v>
       </c>
       <c r="H45">
-        <v>3.820613935776294</v>
+        <v>6.478432325881541</v>
       </c>
       <c r="I45">
-        <v>317.4187896963676</v>
+        <v>538.2318607894928</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>635.4547072044762</v>
+        <v>1077.510155694547</v>
       </c>
       <c r="C46">
-        <v>0.134126688087432</v>
+        <v>0.2274322102352107</v>
       </c>
       <c r="D46">
-        <v>52.43738681466332</v>
+        <v>88.91556894660299</v>
       </c>
       <c r="E46">
-        <v>21.46917777994019</v>
+        <v>36.40425797468119</v>
       </c>
       <c r="F46">
-        <v>80.49929122388133</v>
+        <v>136.4987981622335</v>
       </c>
       <c r="G46">
-        <v>97.96192040618973</v>
+        <v>166.1093432974522</v>
       </c>
       <c r="H46">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I46">
-        <v>889.2301480958304</v>
+        <v>1507.825033727713</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1078.600753018124</v>
+        <v>1828.931711639429</v>
       </c>
       <c r="C47">
-        <v>0.09686927472981197</v>
+        <v>0.1642565962809855</v>
       </c>
       <c r="D47">
-        <v>71.75642406217088</v>
+        <v>121.6739364532462</v>
       </c>
       <c r="E47">
-        <v>57.5764313189305</v>
+        <v>97.62960093209955</v>
       </c>
       <c r="F47">
-        <v>110.3619315166115</v>
+        <v>187.1354490933846</v>
       </c>
       <c r="G47">
-        <v>134.6976405585109</v>
+        <v>228.4003470339969</v>
       </c>
       <c r="H47">
-        <v>15.28245574310518</v>
+        <v>25.91372930352616</v>
       </c>
       <c r="I47">
-        <v>1468.372505492183</v>
+        <v>2489.849031051962</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1694.19750062246</v>
+        <v>2872.769674968521</v>
       </c>
       <c r="C48">
-        <v>0.09686927472981197</v>
+        <v>0.1642565962809855</v>
       </c>
       <c r="D48">
-        <v>71.75642406217088</v>
+        <v>121.6739364532462</v>
       </c>
       <c r="E48">
-        <v>72.21450707798063</v>
+        <v>122.4506859148367</v>
       </c>
       <c r="F48">
-        <v>164.8937094424665</v>
+        <v>279.6023768807042</v>
       </c>
       <c r="G48">
-        <v>153.0655006346715</v>
+        <v>259.5458489022691</v>
       </c>
       <c r="H48">
-        <v>26.74429755043406</v>
+        <v>45.34902628117079</v>
       </c>
       <c r="I48">
-        <v>2182.968808664914</v>
+        <v>3701.555805997029</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1647.165491043182</v>
+        <v>2793.019745681918</v>
       </c>
       <c r="C49">
-        <v>0.1639326187735279</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D49">
-        <v>77.27614899003014</v>
+        <v>131.0334700265728</v>
       </c>
       <c r="E49">
-        <v>68.31102020890059</v>
+        <v>115.8317299194401</v>
       </c>
       <c r="F49">
-        <v>137.627820479539</v>
+        <v>233.3689129870443</v>
       </c>
       <c r="G49">
-        <v>183.6786007616059</v>
+        <v>311.4550186827229</v>
       </c>
       <c r="H49">
-        <v>5.094151914368392</v>
+        <v>8.637909767842055</v>
       </c>
       <c r="I49">
-        <v>2119.317166016399</v>
+        <v>3593.624759766938</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_NOx.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2690.230947934739</v>
+        <v>1582.641912282847</v>
       </c>
       <c r="C2">
-        <v>0.3032429469802809</v>
+        <v>0.1783954637290864</v>
       </c>
       <c r="D2">
-        <v>201.2299718265226</v>
+        <v>118.3820250319552</v>
       </c>
       <c r="E2">
-        <v>89.35590593785382</v>
+        <v>52.56738346416558</v>
       </c>
       <c r="F2">
-        <v>464.5362324553431</v>
+        <v>273.2830472499743</v>
       </c>
       <c r="G2">
-        <v>733.6495995637473</v>
+        <v>431.6003449779955</v>
       </c>
       <c r="H2">
-        <v>36.71111651332873</v>
+        <v>21.59686389947157</v>
       </c>
       <c r="I2">
-        <v>4216.017017178515</v>
+        <v>2480.249972370138</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>2000.837114768328</v>
+        <v>1177.076889965305</v>
       </c>
       <c r="C3">
-        <v>0.315878069771126</v>
+        <v>0.1858286080511317</v>
       </c>
       <c r="D3">
-        <v>196.5502050398594</v>
+        <v>115.6289546823748</v>
       </c>
       <c r="E3">
-        <v>62.8800819562675</v>
+        <v>36.99186243774614</v>
       </c>
       <c r="F3">
-        <v>484.3505741240544</v>
+        <v>284.9396701184568</v>
       </c>
       <c r="G3">
-        <v>515.6310864858413</v>
+        <v>303.3417518949119</v>
       </c>
       <c r="H3">
-        <v>28.07320674548668</v>
+        <v>16.51524886430179</v>
       </c>
       <c r="I3">
-        <v>3288.638147189608</v>
+        <v>1934.680206571148</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>2163.881414643161</v>
+        <v>1272.994581618811</v>
       </c>
       <c r="C4">
-        <v>0.3411483153528161</v>
+        <v>0.2006948966952222</v>
       </c>
       <c r="D4">
-        <v>163.7918375332161</v>
+        <v>96.35746223531238</v>
       </c>
       <c r="E4">
-        <v>89.35590593785382</v>
+        <v>52.56738346416558</v>
       </c>
       <c r="F4">
-        <v>398.4884268929722</v>
+        <v>234.4276376883667</v>
       </c>
       <c r="G4">
-        <v>508.7098638484473</v>
+        <v>299.270050527195</v>
       </c>
       <c r="H4">
-        <v>12.95686465176308</v>
+        <v>7.622422552754671</v>
       </c>
       <c r="I4">
-        <v>3337.525461822766</v>
+        <v>1963.440232983301</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>2016.787100625649</v>
+        <v>1186.46014240967</v>
       </c>
       <c r="C5">
-        <v>0.4169590520978863</v>
+        <v>0.2452937626274938</v>
       </c>
       <c r="D5">
-        <v>215.2692721865125</v>
+        <v>126.6412360806963</v>
       </c>
       <c r="E5">
-        <v>72.80851594936237</v>
+        <v>42.83268282265342</v>
       </c>
       <c r="F5">
-        <v>334.6422148493468</v>
+        <v>196.8674084454792</v>
       </c>
       <c r="G5">
-        <v>460.2613053866905</v>
+        <v>270.7681409531765</v>
       </c>
       <c r="H5">
-        <v>23.75425186156565</v>
+        <v>13.9744413467169</v>
       </c>
       <c r="I5">
-        <v>3123.939619911224</v>
+        <v>1837.78934582102</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>2094.764809261438</v>
+        <v>1232.333821026565</v>
       </c>
       <c r="C6">
-        <v>0.5054049116338016</v>
+        <v>0.2973257728818106</v>
       </c>
       <c r="D6">
-        <v>182.5109046798692</v>
+        <v>107.3697436336338</v>
       </c>
       <c r="E6">
-        <v>94.32012293440125</v>
+        <v>55.48779365661918</v>
       </c>
       <c r="F6">
-        <v>387.4804592992436</v>
+        <v>227.9517360947654</v>
       </c>
       <c r="G6">
-        <v>477.5643619801752</v>
+        <v>280.9473943724686</v>
       </c>
       <c r="H6">
-        <v>25.91372930352616</v>
+        <v>15.24484510550934</v>
       </c>
       <c r="I6">
-        <v>3263.059792370288</v>
+        <v>1919.632659662443</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2059.320396245171</v>
+        <v>1211.482148927976</v>
       </c>
       <c r="C7">
-        <v>0.4043239293070413</v>
+        <v>0.2378606183054486</v>
       </c>
       <c r="D7">
-        <v>224.6288057598392</v>
+        <v>132.1473767798569</v>
       </c>
       <c r="E7">
-        <v>71.1537769505132</v>
+        <v>41.85921275850222</v>
       </c>
       <c r="F7">
-        <v>435.9155167116491</v>
+        <v>256.4457031066111</v>
       </c>
       <c r="G7">
-        <v>487.9461959362661</v>
+        <v>287.0549464240442</v>
       </c>
       <c r="H7">
-        <v>23.75425186156565</v>
+        <v>13.9744413467169</v>
       </c>
       <c r="I7">
-        <v>3303.12326739431</v>
+        <v>1943.201689962013</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2169.1980765956</v>
+        <v>1276.1223324336</v>
       </c>
       <c r="C8">
-        <v>0.4422292976795764</v>
+        <v>0.2601600512715843</v>
       </c>
       <c r="D8">
-        <v>154.4323039598894</v>
+        <v>90.85132153615166</v>
       </c>
       <c r="E8">
-        <v>76.11799394706064</v>
+        <v>44.77962295095585</v>
       </c>
       <c r="F8">
-        <v>391.883646336735</v>
+        <v>230.5420967322059</v>
       </c>
       <c r="G8">
-        <v>373.7460224192675</v>
+        <v>219.8718738567147</v>
       </c>
       <c r="H8">
-        <v>30.23268418744719</v>
+        <v>17.78565262309424</v>
       </c>
       <c r="I8">
-        <v>3196.05295674368</v>
+        <v>1880.213060183994</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>2959.608486858378</v>
+        <v>1741.114620232118</v>
       </c>
       <c r="C9">
-        <v>0.2527024558169008</v>
+        <v>0.1486628864409053</v>
       </c>
       <c r="D9">
-        <v>308.8646079197788</v>
+        <v>181.7026430723033</v>
       </c>
       <c r="E9">
-        <v>102.593817928647</v>
+        <v>60.35514397737529</v>
       </c>
       <c r="F9">
-        <v>433.713923192903</v>
+        <v>255.1505227878909</v>
       </c>
       <c r="G9">
-        <v>363.3641884631768</v>
+        <v>213.7643218051392</v>
       </c>
       <c r="H9">
-        <v>21.59477441960514</v>
+        <v>12.70403758792446</v>
       </c>
       <c r="I9">
-        <v>4189.992501238306</v>
+        <v>2464.939952349192</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>3608.241245056079</v>
+        <v>2122.700219636281</v>
       </c>
       <c r="C10">
-        <v>0.3411483153528161</v>
+        <v>0.2006948966952222</v>
       </c>
       <c r="D10">
-        <v>182.5109046798692</v>
+        <v>107.3697436336338</v>
       </c>
       <c r="E10">
-        <v>104.2485569274961</v>
+        <v>61.32861404152651</v>
       </c>
       <c r="F10">
-        <v>259.788035211993</v>
+        <v>152.8312776089904</v>
       </c>
       <c r="G10">
-        <v>138.4244527478769</v>
+        <v>81.43402735433878</v>
       </c>
       <c r="H10">
-        <v>47.5085037231313</v>
+        <v>27.94888269343379</v>
       </c>
       <c r="I10">
-        <v>4341.062846661798</v>
+        <v>2553.8134598649</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>3475.324696245078</v>
+        <v>2044.506449266576</v>
       </c>
       <c r="C11">
-        <v>0.3032429469802809</v>
+        <v>0.1783954637290864</v>
       </c>
       <c r="D11">
-        <v>154.4323039598894</v>
+        <v>90.85132153615166</v>
       </c>
       <c r="E11">
-        <v>122.4506859148367</v>
+        <v>72.03678474718984</v>
       </c>
       <c r="F11">
-        <v>184.933855574639</v>
+        <v>108.7951467725016</v>
       </c>
       <c r="G11">
-        <v>86.51528296742305</v>
+        <v>50.89626709646171</v>
       </c>
       <c r="H11">
-        <v>8.637909767842055</v>
+        <v>5.081615035169781</v>
       </c>
       <c r="I11">
-        <v>4032.597977376689</v>
+        <v>2372.345979917779</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2500.603338297707</v>
+        <v>1471.0854665554</v>
       </c>
       <c r="C12">
-        <v>0.4169590520978863</v>
+        <v>0.2452937626274938</v>
       </c>
       <c r="D12">
-        <v>135.7132368132361</v>
+        <v>79.83904013783017</v>
       </c>
       <c r="E12">
-        <v>115.8317299194401</v>
+        <v>68.14290449058498</v>
       </c>
       <c r="F12">
-        <v>116.6844564935221</v>
+        <v>68.6445568921737</v>
       </c>
       <c r="G12">
-        <v>117.6607848356953</v>
+        <v>69.21892325118793</v>
       </c>
       <c r="H12">
-        <v>4.318954883921028</v>
+        <v>2.540807517584891</v>
       </c>
       <c r="I12">
-        <v>2991.229460295619</v>
+        <v>1759.716992607389</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1804.120622528039</v>
+        <v>1061.350109818141</v>
       </c>
       <c r="C13">
-        <v>0.6570263851239422</v>
+        <v>0.3865235047463538</v>
       </c>
       <c r="D13">
-        <v>98.27510251992969</v>
+        <v>57.81447734118742</v>
       </c>
       <c r="E13">
-        <v>99.2843399309487</v>
+        <v>58.40820384907286</v>
       </c>
       <c r="F13">
-        <v>94.66852130606522</v>
+        <v>55.6927537049711</v>
       </c>
       <c r="G13">
-        <v>121.1213961543923</v>
+        <v>71.25477393504643</v>
       </c>
       <c r="H13">
-        <v>10.79738720980257</v>
+        <v>6.352018793962228</v>
       </c>
       <c r="I13">
-        <v>2228.924396034302</v>
+        <v>1311.258860947127</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1352.204356570624</v>
+        <v>795.4912905611411</v>
       </c>
       <c r="C14">
-        <v>0.3790536837253511</v>
+        <v>0.222994329661358</v>
       </c>
       <c r="D14">
-        <v>51.47743465329648</v>
+        <v>30.2837738453839</v>
       </c>
       <c r="E14">
-        <v>97.62960093209955</v>
+        <v>57.43473378492163</v>
       </c>
       <c r="F14">
-        <v>59.44302500613398</v>
+        <v>34.96986860544697</v>
       </c>
       <c r="G14">
-        <v>62.29100373654457</v>
+        <v>36.64531230945243</v>
       </c>
       <c r="H14">
-        <v>10.79738720980257</v>
+        <v>6.352018793962228</v>
       </c>
       <c r="I14">
-        <v>1634.221861792226</v>
+        <v>961.3999922299695</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>852.4381330412448</v>
+        <v>501.4827139710469</v>
       </c>
       <c r="C15">
-        <v>0.5054049116338016</v>
+        <v>0.2973257728818106</v>
       </c>
       <c r="D15">
-        <v>51.47743465329648</v>
+        <v>30.2837738453839</v>
       </c>
       <c r="E15">
-        <v>54.60638696202177</v>
+        <v>32.12451211699008</v>
       </c>
       <c r="F15">
-        <v>52.83824444989686</v>
+        <v>31.08432764928618</v>
       </c>
       <c r="G15">
-        <v>44.98794714305999</v>
+        <v>26.4660588901601</v>
       </c>
       <c r="H15">
-        <v>4.318954883921028</v>
+        <v>2.540807517584891</v>
       </c>
       <c r="I15">
-        <v>1061.172506045075</v>
+        <v>624.2795197633338</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>501.5384441801916</v>
+        <v>295.0511601950237</v>
       </c>
       <c r="C16">
-        <v>0.2906078241894359</v>
+        <v>0.1709623194070411</v>
       </c>
       <c r="D16">
-        <v>18.71906714665326</v>
+        <v>11.01228139832142</v>
       </c>
       <c r="E16">
-        <v>24.82108498273718</v>
+        <v>14.60205096226821</v>
       </c>
       <c r="F16">
-        <v>48.43505741240545</v>
+        <v>28.49396701184568</v>
       </c>
       <c r="G16">
-        <v>76.13344901133226</v>
+        <v>44.78871504488633</v>
       </c>
       <c r="H16">
-        <v>4.318954883921028</v>
+        <v>2.540807517584891</v>
       </c>
       <c r="I16">
-        <v>674.2566654414301</v>
+        <v>396.6599444493372</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>303.0497312890913</v>
+        <v>178.2817964429293</v>
       </c>
       <c r="C17">
-        <v>0.2147970874443656</v>
+        <v>0.1263634534747695</v>
       </c>
       <c r="D17">
-        <v>4.679766786663316</v>
+        <v>2.753070349580355</v>
       </c>
       <c r="E17">
-        <v>9.928433993094867</v>
+        <v>5.840820384907288</v>
       </c>
       <c r="F17">
-        <v>70.45099259986249</v>
+        <v>41.44577019904826</v>
       </c>
       <c r="G17">
-        <v>72.67283769263537</v>
+        <v>42.75286436102785</v>
       </c>
       <c r="H17">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I17">
-        <v>463.1560368907522</v>
+        <v>272.4710889497603</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>226.8442433041151</v>
+        <v>133.4507014309646</v>
       </c>
       <c r="C18">
-        <v>0.3285131925619711</v>
+        <v>0.1932617523731769</v>
       </c>
       <c r="D18">
-        <v>9.359533573326631</v>
+        <v>5.50614069916071</v>
       </c>
       <c r="E18">
-        <v>3.30947799769829</v>
+        <v>1.946940128302428</v>
       </c>
       <c r="F18">
-        <v>59.44302500613398</v>
+        <v>34.96986860544697</v>
       </c>
       <c r="G18">
-        <v>51.90916978045384</v>
+        <v>30.53776025787705</v>
       </c>
       <c r="I18">
-        <v>351.1939628542899</v>
+        <v>206.604672874125</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>132.916548811005</v>
+        <v>78.19377036970589</v>
       </c>
       <c r="C19">
-        <v>0.1516214734901405</v>
+        <v>0.08919773186454319</v>
       </c>
       <c r="D19">
-        <v>14.03930035998995</v>
+        <v>8.259211048741058</v>
       </c>
       <c r="E19">
-        <v>1.654738998849145</v>
+        <v>0.9734700641512141</v>
       </c>
       <c r="F19">
-        <v>46.23346389365974</v>
+        <v>27.19878669312541</v>
       </c>
       <c r="G19">
-        <v>76.13344901133226</v>
+        <v>44.78871504488633</v>
       </c>
       <c r="I19">
-        <v>271.1291225483262</v>
+        <v>159.5031509524744</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>180.7665063829668</v>
+        <v>106.3435277028</v>
       </c>
       <c r="C20">
-        <v>0.1137161051176053</v>
+        <v>0.0668982988984074</v>
       </c>
       <c r="D20">
-        <v>14.03930035998995</v>
+        <v>8.259211048741058</v>
       </c>
       <c r="E20">
-        <v>13.23791199079316</v>
+        <v>7.787760513209713</v>
       </c>
       <c r="F20">
-        <v>44.03187037491404</v>
+        <v>25.90360637440516</v>
       </c>
       <c r="G20">
-        <v>41.52733582436305</v>
+        <v>24.43020820630163</v>
       </c>
       <c r="I20">
-        <v>293.7166410381446</v>
+        <v>172.7912121443559</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>363.3052334167468</v>
+        <v>213.7296390105293</v>
       </c>
       <c r="C21">
-        <v>0.1768917190718305</v>
+        <v>0.1040640205086338</v>
       </c>
       <c r="D21">
-        <v>14.03930035998995</v>
+        <v>8.259211048741058</v>
       </c>
       <c r="E21">
-        <v>8.273694994245725</v>
+        <v>4.867350320756071</v>
       </c>
       <c r="F21">
-        <v>59.44302500613398</v>
+        <v>34.96986860544697</v>
       </c>
       <c r="G21">
-        <v>86.51528296742305</v>
+        <v>50.89626709646171</v>
       </c>
       <c r="H21">
-        <v>6.478432325881541</v>
+        <v>3.811211276377335</v>
       </c>
       <c r="I21">
-        <v>538.2318607894928</v>
+        <v>316.6376113788211</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>1077.510155694547</v>
+        <v>633.8908317970823</v>
       </c>
       <c r="C22">
-        <v>0.2274322102352107</v>
+        <v>0.1337965977968148</v>
       </c>
       <c r="D22">
-        <v>88.91556894660299</v>
+        <v>52.30833664202672</v>
       </c>
       <c r="E22">
-        <v>36.40425797468119</v>
+        <v>21.41634141132671</v>
       </c>
       <c r="F22">
-        <v>136.4987981622335</v>
+        <v>80.30117976065603</v>
       </c>
       <c r="G22">
-        <v>166.1093432974522</v>
+        <v>97.72083282520651</v>
       </c>
       <c r="H22">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I22">
-        <v>1507.825033727713</v>
+        <v>887.0417227928875</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1828.931711639429</v>
+        <v>1075.946280287153</v>
       </c>
       <c r="C23">
-        <v>0.1642565962809855</v>
+        <v>0.09663087618658846</v>
       </c>
       <c r="D23">
-        <v>121.6739364532462</v>
+        <v>71.57982908908916</v>
       </c>
       <c r="E23">
-        <v>97.62960093209955</v>
+        <v>57.43473378492163</v>
       </c>
       <c r="F23">
-        <v>187.1354490933846</v>
+        <v>110.090327091222</v>
       </c>
       <c r="G23">
-        <v>228.4003470339969</v>
+        <v>134.366145134659</v>
       </c>
       <c r="H23">
-        <v>25.91372930352616</v>
+        <v>15.24484510550934</v>
       </c>
       <c r="I23">
-        <v>2489.849031051962</v>
+        <v>1464.75879136874</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2872.769674968521</v>
+        <v>1690.028023590576</v>
       </c>
       <c r="C24">
-        <v>0.1642565962809855</v>
+        <v>0.09663087618658846</v>
       </c>
       <c r="D24">
-        <v>121.6739364532462</v>
+        <v>71.57982908908916</v>
       </c>
       <c r="E24">
-        <v>122.4506859148367</v>
+        <v>72.03678474718984</v>
       </c>
       <c r="F24">
-        <v>279.6023768807042</v>
+        <v>164.4879004774728</v>
       </c>
       <c r="G24">
-        <v>259.5458489022691</v>
+        <v>152.6888012893851</v>
       </c>
       <c r="H24">
-        <v>45.34902628117079</v>
+        <v>26.67847893464135</v>
       </c>
       <c r="I24">
-        <v>3701.555805997029</v>
+        <v>2177.596449004541</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>2793.019745681918</v>
+        <v>1643.111761368752</v>
       </c>
       <c r="C25">
-        <v>0.2779727013985909</v>
+        <v>0.1635291750849959</v>
       </c>
       <c r="D25">
-        <v>131.0334700265728</v>
+        <v>77.08596978824993</v>
       </c>
       <c r="E25">
-        <v>115.8317299194401</v>
+        <v>68.14290449058498</v>
       </c>
       <c r="F25">
-        <v>233.3689129870443</v>
+        <v>137.2891137843474</v>
       </c>
       <c r="G25">
-        <v>311.4550186827229</v>
+        <v>183.2265615472622</v>
       </c>
       <c r="H25">
-        <v>8.637909767842055</v>
+        <v>5.081615035169781</v>
       </c>
       <c r="I25">
-        <v>3593.624759766938</v>
+        <v>2114.101455189452</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2690.230947934739</v>
+        <v>1582.641912282847</v>
       </c>
       <c r="C26">
-        <v>0.3032429469802809</v>
+        <v>0.1783954637290864</v>
       </c>
       <c r="D26">
-        <v>201.2299718265226</v>
+        <v>118.3820250319552</v>
       </c>
       <c r="E26">
-        <v>89.35590593785382</v>
+        <v>52.56738346416558</v>
       </c>
       <c r="F26">
-        <v>464.5362324553431</v>
+        <v>273.2830472499743</v>
       </c>
       <c r="G26">
-        <v>733.6495995637473</v>
+        <v>431.6003449779955</v>
       </c>
       <c r="H26">
-        <v>36.71111651332873</v>
+        <v>21.59686389947157</v>
       </c>
       <c r="I26">
-        <v>4216.017017178515</v>
+        <v>2480.249972370138</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2195.781386357802</v>
+        <v>1291.761086507541</v>
       </c>
       <c r="C27">
-        <v>0.3411483153528161</v>
+        <v>0.2006948966952222</v>
       </c>
       <c r="D27">
-        <v>131.0334700265728</v>
+        <v>77.08596978824993</v>
       </c>
       <c r="E27">
-        <v>87.70116693900468</v>
+        <v>51.59391340001437</v>
       </c>
       <c r="F27">
-        <v>449.1250778241231</v>
+        <v>264.2167850189327</v>
       </c>
       <c r="G27">
-        <v>633.2918713215367</v>
+        <v>372.5606751460999</v>
       </c>
       <c r="H27">
-        <v>28.07320674548668</v>
+        <v>16.51524886430179</v>
       </c>
       <c r="I27">
-        <v>3525.347327529878</v>
+        <v>2073.934373621834</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2358.825686232634</v>
+        <v>1387.678778161047</v>
       </c>
       <c r="C28">
-        <v>0.6064858939605619</v>
+        <v>0.3567909274581728</v>
       </c>
       <c r="D28">
-        <v>196.5502050398594</v>
+        <v>115.6289546823748</v>
       </c>
       <c r="E28">
-        <v>97.62960093209955</v>
+        <v>57.43473378492163</v>
       </c>
       <c r="F28">
-        <v>334.6422148493468</v>
+        <v>196.8674084454792</v>
       </c>
       <c r="G28">
-        <v>564.0796449475986</v>
+        <v>331.8436614689303</v>
       </c>
       <c r="H28">
-        <v>19.43529697764462</v>
+        <v>11.433633829132</v>
       </c>
       <c r="I28">
-        <v>3571.769134873144</v>
+        <v>2101.243961299343</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2131.981442928519</v>
+        <v>1254.228076730082</v>
       </c>
       <c r="C29">
-        <v>0.2906078241894359</v>
+        <v>0.1709623194070411</v>
       </c>
       <c r="D29">
-        <v>177.831137893206</v>
+        <v>104.6166732840534</v>
       </c>
       <c r="E29">
-        <v>105.9032959263453</v>
+        <v>62.3020841056777</v>
       </c>
       <c r="F29">
-        <v>295.0135315119239</v>
+        <v>173.5541627085146</v>
       </c>
       <c r="G29">
-        <v>356.4429658257829</v>
+        <v>209.6926204374224</v>
       </c>
       <c r="H29">
-        <v>4.318954883921028</v>
+        <v>2.540807517584891</v>
       </c>
       <c r="I29">
-        <v>3071.781936793888</v>
+        <v>1807.105387102742</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2238.314681977324</v>
+        <v>1316.783093025847</v>
       </c>
       <c r="C30">
-        <v>0.315878069771126</v>
+        <v>0.1858286080511317</v>
       </c>
       <c r="D30">
-        <v>168.4716043198794</v>
+        <v>99.11053258489275</v>
       </c>
       <c r="E30">
-        <v>87.70116693900468</v>
+        <v>51.59391340001437</v>
       </c>
       <c r="F30">
-        <v>453.5282648616147</v>
+        <v>266.8071456563732</v>
       </c>
       <c r="G30">
-        <v>436.0370261558119</v>
+        <v>256.5171861661671</v>
       </c>
       <c r="H30">
-        <v>17.27581953568411</v>
+        <v>10.16323007033956</v>
       </c>
       <c r="I30">
-        <v>3401.64444185909</v>
+        <v>2001.160929511685</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2287.936860200099</v>
+        <v>1345.97543396387</v>
       </c>
       <c r="C31">
-        <v>0.315878069771126</v>
+        <v>0.1858286080511317</v>
       </c>
       <c r="D31">
-        <v>177.831137893206</v>
+        <v>104.6166732840534</v>
       </c>
       <c r="E31">
-        <v>92.66538393555211</v>
+        <v>54.514323592468</v>
       </c>
       <c r="F31">
-        <v>361.061337074295</v>
+        <v>212.4095722701224</v>
       </c>
       <c r="G31">
-        <v>404.89152428754</v>
+        <v>238.1945300114407</v>
       </c>
       <c r="H31">
-        <v>43.18954883921027</v>
+        <v>25.40807517584891</v>
       </c>
       <c r="I31">
-        <v>3367.891670299673</v>
+        <v>1981.304436905855</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2692.003168585554</v>
+        <v>1583.684495887776</v>
       </c>
       <c r="C32">
-        <v>0.3411483153528161</v>
+        <v>0.2006948966952222</v>
       </c>
       <c r="D32">
-        <v>112.3144028799196</v>
+        <v>66.07368838992846</v>
       </c>
       <c r="E32">
-        <v>100.9390789297978</v>
+        <v>59.38167391322408</v>
       </c>
       <c r="F32">
-        <v>427.1091426366661</v>
+        <v>251.26498183173</v>
       </c>
       <c r="G32">
-        <v>380.6672450566614</v>
+        <v>223.9435752244315</v>
       </c>
       <c r="H32">
-        <v>30.23268418744719</v>
+        <v>17.78565262309424</v>
       </c>
       <c r="I32">
-        <v>3743.606870591399</v>
+        <v>2202.33476276688</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>2959.608486858378</v>
+        <v>1741.114620232118</v>
       </c>
       <c r="C33">
-        <v>0.2527024558169008</v>
+        <v>0.1486628864409053</v>
       </c>
       <c r="D33">
-        <v>308.8646079197788</v>
+        <v>181.7026430723033</v>
       </c>
       <c r="E33">
-        <v>102.593817928647</v>
+        <v>60.35514397737529</v>
       </c>
       <c r="F33">
-        <v>433.713923192903</v>
+        <v>255.1505227878909</v>
       </c>
       <c r="G33">
-        <v>363.3641884631768</v>
+        <v>213.7643218051392</v>
       </c>
       <c r="H33">
-        <v>21.59477441960514</v>
+        <v>12.70403758792446</v>
       </c>
       <c r="I33">
-        <v>4189.992501238306</v>
+        <v>2464.939952349192</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>3608.241245056079</v>
+        <v>2122.700219636281</v>
       </c>
       <c r="C34">
-        <v>0.3411483153528161</v>
+        <v>0.2006948966952222</v>
       </c>
       <c r="D34">
-        <v>182.5109046798692</v>
+        <v>107.3697436336338</v>
       </c>
       <c r="E34">
-        <v>104.2485569274961</v>
+        <v>61.32861404152651</v>
       </c>
       <c r="F34">
-        <v>259.788035211993</v>
+        <v>152.8312776089904</v>
       </c>
       <c r="G34">
-        <v>138.4244527478769</v>
+        <v>81.43402735433878</v>
       </c>
       <c r="H34">
-        <v>47.5085037231313</v>
+        <v>27.94888269343379</v>
       </c>
       <c r="I34">
-        <v>4341.062846661798</v>
+        <v>2553.8134598649</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>3475.324696245078</v>
+        <v>2044.506449266576</v>
       </c>
       <c r="C35">
-        <v>0.3032429469802809</v>
+        <v>0.1783954637290864</v>
       </c>
       <c r="D35">
-        <v>154.4323039598894</v>
+        <v>90.85132153615166</v>
       </c>
       <c r="E35">
-        <v>122.4506859148367</v>
+        <v>72.03678474718984</v>
       </c>
       <c r="F35">
-        <v>184.933855574639</v>
+        <v>108.7951467725016</v>
       </c>
       <c r="G35">
-        <v>86.51528296742305</v>
+        <v>50.89626709646171</v>
       </c>
       <c r="H35">
-        <v>8.637909767842055</v>
+        <v>5.081615035169781</v>
       </c>
       <c r="I35">
-        <v>4032.597977376689</v>
+        <v>2372.345979917779</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2500.603338297707</v>
+        <v>1471.0854665554</v>
       </c>
       <c r="C36">
-        <v>0.4169590520978863</v>
+        <v>0.2452937626274938</v>
       </c>
       <c r="D36">
-        <v>135.7132368132361</v>
+        <v>79.83904013783017</v>
       </c>
       <c r="E36">
-        <v>115.8317299194401</v>
+        <v>68.14290449058498</v>
       </c>
       <c r="F36">
-        <v>116.6844564935221</v>
+        <v>68.6445568921737</v>
       </c>
       <c r="G36">
-        <v>117.6607848356953</v>
+        <v>69.21892325118793</v>
       </c>
       <c r="H36">
-        <v>4.318954883921028</v>
+        <v>2.540807517584891</v>
       </c>
       <c r="I36">
-        <v>2991.229460295619</v>
+        <v>1759.716992607389</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1804.120622528039</v>
+        <v>1061.350109818141</v>
       </c>
       <c r="C37">
-        <v>0.6570263851239422</v>
+        <v>0.3865235047463538</v>
       </c>
       <c r="D37">
-        <v>98.27510251992969</v>
+        <v>57.81447734118742</v>
       </c>
       <c r="E37">
-        <v>99.2843399309487</v>
+        <v>58.40820384907286</v>
       </c>
       <c r="F37">
-        <v>94.66852130606522</v>
+        <v>55.6927537049711</v>
       </c>
       <c r="G37">
-        <v>121.1213961543923</v>
+        <v>71.25477393504643</v>
       </c>
       <c r="H37">
-        <v>10.79738720980257</v>
+        <v>6.352018793962228</v>
       </c>
       <c r="I37">
-        <v>2228.924396034302</v>
+        <v>1311.258860947127</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1352.204356570624</v>
+        <v>795.4912905611411</v>
       </c>
       <c r="C38">
-        <v>0.3790536837253511</v>
+        <v>0.222994329661358</v>
       </c>
       <c r="D38">
-        <v>51.47743465329648</v>
+        <v>30.2837738453839</v>
       </c>
       <c r="E38">
-        <v>97.62960093209955</v>
+        <v>57.43473378492163</v>
       </c>
       <c r="F38">
-        <v>59.44302500613398</v>
+        <v>34.96986860544697</v>
       </c>
       <c r="G38">
-        <v>62.29100373654457</v>
+        <v>36.64531230945243</v>
       </c>
       <c r="H38">
-        <v>10.79738720980257</v>
+        <v>6.352018793962228</v>
       </c>
       <c r="I38">
-        <v>1634.221861792226</v>
+        <v>961.3999922299695</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>852.4381330412448</v>
+        <v>501.4827139710469</v>
       </c>
       <c r="C39">
-        <v>0.5054049116338016</v>
+        <v>0.2973257728818106</v>
       </c>
       <c r="D39">
-        <v>51.47743465329648</v>
+        <v>30.2837738453839</v>
       </c>
       <c r="E39">
-        <v>54.60638696202177</v>
+        <v>32.12451211699008</v>
       </c>
       <c r="F39">
-        <v>52.83824444989686</v>
+        <v>31.08432764928618</v>
       </c>
       <c r="G39">
-        <v>44.98794714305999</v>
+        <v>26.4660588901601</v>
       </c>
       <c r="H39">
-        <v>4.318954883921028</v>
+        <v>2.540807517584891</v>
       </c>
       <c r="I39">
-        <v>1061.172506045075</v>
+        <v>624.2795197633338</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>501.5384441801916</v>
+        <v>295.0511601950237</v>
       </c>
       <c r="C40">
-        <v>0.2906078241894359</v>
+        <v>0.1709623194070411</v>
       </c>
       <c r="D40">
-        <v>18.71906714665326</v>
+        <v>11.01228139832142</v>
       </c>
       <c r="E40">
-        <v>24.82108498273718</v>
+        <v>14.60205096226821</v>
       </c>
       <c r="F40">
-        <v>48.43505741240545</v>
+        <v>28.49396701184568</v>
       </c>
       <c r="G40">
-        <v>76.13344901133226</v>
+        <v>44.78871504488633</v>
       </c>
       <c r="H40">
-        <v>4.318954883921028</v>
+        <v>2.540807517584891</v>
       </c>
       <c r="I40">
-        <v>674.2566654414301</v>
+        <v>396.6599444493372</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>303.0497312890913</v>
+        <v>178.2817964429293</v>
       </c>
       <c r="C41">
-        <v>0.2147970874443656</v>
+        <v>0.1263634534747695</v>
       </c>
       <c r="D41">
-        <v>4.679766786663316</v>
+        <v>2.753070349580355</v>
       </c>
       <c r="E41">
-        <v>9.928433993094867</v>
+        <v>5.840820384907288</v>
       </c>
       <c r="F41">
-        <v>70.45099259986249</v>
+        <v>41.44577019904826</v>
       </c>
       <c r="G41">
-        <v>72.67283769263537</v>
+        <v>42.75286436102785</v>
       </c>
       <c r="H41">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I41">
-        <v>463.1560368907522</v>
+        <v>272.4710889497603</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>226.8442433041151</v>
+        <v>133.4507014309646</v>
       </c>
       <c r="C42">
-        <v>0.3285131925619711</v>
+        <v>0.1932617523731769</v>
       </c>
       <c r="D42">
-        <v>9.359533573326631</v>
+        <v>5.50614069916071</v>
       </c>
       <c r="E42">
-        <v>3.30947799769829</v>
+        <v>1.946940128302428</v>
       </c>
       <c r="F42">
-        <v>59.44302500613398</v>
+        <v>34.96986860544697</v>
       </c>
       <c r="G42">
-        <v>51.90916978045384</v>
+        <v>30.53776025787705</v>
       </c>
       <c r="I42">
-        <v>351.1939628542899</v>
+        <v>206.604672874125</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>132.916548811005</v>
+        <v>78.19377036970589</v>
       </c>
       <c r="C43">
-        <v>0.1516214734901405</v>
+        <v>0.08919773186454319</v>
       </c>
       <c r="D43">
-        <v>14.03930035998995</v>
+        <v>8.259211048741058</v>
       </c>
       <c r="E43">
-        <v>1.654738998849145</v>
+        <v>0.9734700641512141</v>
       </c>
       <c r="F43">
-        <v>46.23346389365974</v>
+        <v>27.19878669312541</v>
       </c>
       <c r="G43">
-        <v>76.13344901133226</v>
+        <v>44.78871504488633</v>
       </c>
       <c r="I43">
-        <v>271.1291225483262</v>
+        <v>159.5031509524744</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>180.7665063829668</v>
+        <v>106.3435277028</v>
       </c>
       <c r="C44">
-        <v>0.1137161051176053</v>
+        <v>0.0668982988984074</v>
       </c>
       <c r="D44">
-        <v>14.03930035998995</v>
+        <v>8.259211048741058</v>
       </c>
       <c r="E44">
-        <v>13.23791199079316</v>
+        <v>7.787760513209713</v>
       </c>
       <c r="F44">
-        <v>44.03187037491404</v>
+        <v>25.90360637440516</v>
       </c>
       <c r="G44">
-        <v>41.52733582436305</v>
+        <v>24.43020820630163</v>
       </c>
       <c r="I44">
-        <v>293.7166410381446</v>
+        <v>172.7912121443559</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>363.3052334167468</v>
+        <v>213.7296390105293</v>
       </c>
       <c r="C45">
-        <v>0.1768917190718305</v>
+        <v>0.1040640205086338</v>
       </c>
       <c r="D45">
-        <v>14.03930035998995</v>
+        <v>8.259211048741058</v>
       </c>
       <c r="E45">
-        <v>8.273694994245725</v>
+        <v>4.867350320756071</v>
       </c>
       <c r="F45">
-        <v>59.44302500613398</v>
+        <v>34.96986860544697</v>
       </c>
       <c r="G45">
-        <v>86.51528296742305</v>
+        <v>50.89626709646171</v>
       </c>
       <c r="H45">
-        <v>6.478432325881541</v>
+        <v>3.811211276377335</v>
       </c>
       <c r="I45">
-        <v>538.2318607894928</v>
+        <v>316.6376113788211</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>1077.510155694547</v>
+        <v>633.8908317970823</v>
       </c>
       <c r="C46">
-        <v>0.2274322102352107</v>
+        <v>0.1337965977968148</v>
       </c>
       <c r="D46">
-        <v>88.91556894660299</v>
+        <v>52.30833664202672</v>
       </c>
       <c r="E46">
-        <v>36.40425797468119</v>
+        <v>21.41634141132671</v>
       </c>
       <c r="F46">
-        <v>136.4987981622335</v>
+        <v>80.30117976065603</v>
       </c>
       <c r="G46">
-        <v>166.1093432974522</v>
+        <v>97.72083282520651</v>
       </c>
       <c r="H46">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I46">
-        <v>1507.825033727713</v>
+        <v>887.0417227928875</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1828.931711639429</v>
+        <v>1075.946280287153</v>
       </c>
       <c r="C47">
-        <v>0.1642565962809855</v>
+        <v>0.09663087618658846</v>
       </c>
       <c r="D47">
-        <v>121.6739364532462</v>
+        <v>71.57982908908916</v>
       </c>
       <c r="E47">
-        <v>97.62960093209955</v>
+        <v>57.43473378492163</v>
       </c>
       <c r="F47">
-        <v>187.1354490933846</v>
+        <v>110.090327091222</v>
       </c>
       <c r="G47">
-        <v>228.4003470339969</v>
+        <v>134.366145134659</v>
       </c>
       <c r="H47">
-        <v>25.91372930352616</v>
+        <v>15.24484510550934</v>
       </c>
       <c r="I47">
-        <v>2489.849031051962</v>
+        <v>1464.75879136874</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2872.769674968521</v>
+        <v>1690.028023590576</v>
       </c>
       <c r="C48">
-        <v>0.1642565962809855</v>
+        <v>0.09663087618658846</v>
       </c>
       <c r="D48">
-        <v>121.6739364532462</v>
+        <v>71.57982908908916</v>
       </c>
       <c r="E48">
-        <v>122.4506859148367</v>
+        <v>72.03678474718984</v>
       </c>
       <c r="F48">
-        <v>279.6023768807042</v>
+        <v>164.4879004774728</v>
       </c>
       <c r="G48">
-        <v>259.5458489022691</v>
+        <v>152.6888012893851</v>
       </c>
       <c r="H48">
-        <v>45.34902628117079</v>
+        <v>26.67847893464135</v>
       </c>
       <c r="I48">
-        <v>3701.555805997029</v>
+        <v>2177.596449004541</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>2793.019745681918</v>
+        <v>1643.111761368752</v>
       </c>
       <c r="C49">
-        <v>0.2779727013985909</v>
+        <v>0.1635291750849959</v>
       </c>
       <c r="D49">
-        <v>131.0334700265728</v>
+        <v>77.08596978824993</v>
       </c>
       <c r="E49">
-        <v>115.8317299194401</v>
+        <v>68.14290449058498</v>
       </c>
       <c r="F49">
-        <v>233.3689129870443</v>
+        <v>137.2891137843474</v>
       </c>
       <c r="G49">
-        <v>311.4550186827229</v>
+        <v>183.2265615472622</v>
       </c>
       <c r="H49">
-        <v>8.637909767842055</v>
+        <v>5.081615035169781</v>
       </c>
       <c r="I49">
-        <v>3593.624759766938</v>
+        <v>2114.101455189452</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_NOx.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1582.641912282847</v>
+        <v>631.6445520360844</v>
       </c>
       <c r="C2">
-        <v>0.1783954637290864</v>
+        <v>0.3032429469802809</v>
       </c>
       <c r="D2">
-        <v>118.3820250319552</v>
+        <v>200.0468421098737</v>
       </c>
       <c r="E2">
-        <v>52.56738346416558</v>
+        <v>89.35590593785382</v>
       </c>
       <c r="F2">
-        <v>273.2830472499743</v>
+        <v>460.2961369964368</v>
       </c>
       <c r="G2">
-        <v>431.6003449779955</v>
+        <v>728.7208459266635</v>
       </c>
       <c r="H2">
-        <v>21.59686389947157</v>
+        <v>36.71111651332873</v>
       </c>
       <c r="I2">
-        <v>2480.249972370138</v>
+        <v>2147.078642467221</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1177.076889965305</v>
+        <v>469.7804342877072</v>
       </c>
       <c r="C3">
-        <v>0.1858286080511317</v>
+        <v>0.315878069771126</v>
       </c>
       <c r="D3">
-        <v>115.6289546823748</v>
+        <v>195.3945899677836</v>
       </c>
       <c r="E3">
-        <v>36.99186243774614</v>
+        <v>62.8800819562675</v>
       </c>
       <c r="F3">
-        <v>284.9396701184568</v>
+        <v>479.9296215128723</v>
       </c>
       <c r="G3">
-        <v>303.3417518949119</v>
+        <v>512.1670096371363</v>
       </c>
       <c r="H3">
-        <v>16.51524886430179</v>
+        <v>28.07320674548668</v>
       </c>
       <c r="I3">
-        <v>1934.680206571148</v>
+        <v>1748.540822177025</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1272.994581618811</v>
+        <v>508.0619222898938</v>
       </c>
       <c r="C4">
-        <v>0.2006948966952222</v>
+        <v>0.3411483153528161</v>
       </c>
       <c r="D4">
-        <v>96.35746223531238</v>
+        <v>162.828824973153</v>
       </c>
       <c r="E4">
-        <v>52.56738346416558</v>
+        <v>89.35590593785382</v>
       </c>
       <c r="F4">
-        <v>234.4276376883667</v>
+        <v>394.8511886083177</v>
       </c>
       <c r="G4">
-        <v>299.270050527195</v>
+        <v>505.2922846755636</v>
       </c>
       <c r="H4">
-        <v>7.622422552754671</v>
+        <v>12.95686465176308</v>
       </c>
       <c r="I4">
-        <v>1963.440232983301</v>
+        <v>1673.688139451898</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1186.46014240967</v>
+        <v>473.5253624618342</v>
       </c>
       <c r="C5">
-        <v>0.2452937626274938</v>
+        <v>0.4169590520978863</v>
       </c>
       <c r="D5">
-        <v>126.6412360806963</v>
+        <v>214.0035985361439</v>
       </c>
       <c r="E5">
-        <v>42.83268282265342</v>
+        <v>72.80851594936237</v>
       </c>
       <c r="F5">
-        <v>196.8674084454792</v>
+        <v>331.5877384998026</v>
       </c>
       <c r="G5">
-        <v>270.7681409531765</v>
+        <v>457.1692099445577</v>
       </c>
       <c r="H5">
-        <v>13.9744413467169</v>
+        <v>23.75425186156565</v>
       </c>
       <c r="I5">
-        <v>1837.78934582102</v>
+        <v>1573.265636305364</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1232.333821026565</v>
+        <v>491.8339002020105</v>
       </c>
       <c r="C6">
-        <v>0.2973257728818106</v>
+        <v>0.5054049116338016</v>
       </c>
       <c r="D6">
-        <v>107.3697436336338</v>
+        <v>181.4378335415133</v>
       </c>
       <c r="E6">
-        <v>55.48779365661918</v>
+        <v>94.32012293440125</v>
       </c>
       <c r="F6">
-        <v>227.9517360947654</v>
+        <v>383.9436972102979</v>
       </c>
       <c r="G6">
-        <v>280.9473943724686</v>
+        <v>474.3560223484885</v>
       </c>
       <c r="H6">
-        <v>15.24484510550934</v>
+        <v>25.91372930352616</v>
       </c>
       <c r="I6">
-        <v>1919.632659662443</v>
+        <v>1652.310710451872</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1211.482148927976</v>
+        <v>483.5118375928398</v>
       </c>
       <c r="C7">
-        <v>0.2378606183054486</v>
+        <v>0.4043239293070413</v>
       </c>
       <c r="D7">
-        <v>132.1473767798569</v>
+        <v>223.308102820324</v>
       </c>
       <c r="E7">
-        <v>41.85921275850222</v>
+        <v>71.1537769505132</v>
       </c>
       <c r="F7">
-        <v>256.4457031066111</v>
+        <v>431.936659361585</v>
       </c>
       <c r="G7">
-        <v>287.0549464240442</v>
+        <v>484.668109790847</v>
       </c>
       <c r="H7">
-        <v>13.9744413467169</v>
+        <v>23.75425186156565</v>
       </c>
       <c r="I7">
-        <v>1943.201689962013</v>
+        <v>1718.737062306982</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1276.1223324336</v>
+        <v>509.3102316812697</v>
       </c>
       <c r="C8">
-        <v>0.2601600512715843</v>
+        <v>0.4422292976795764</v>
       </c>
       <c r="D8">
-        <v>90.85132153615166</v>
+        <v>153.5243206889728</v>
       </c>
       <c r="E8">
-        <v>44.77962295095585</v>
+        <v>76.11799394706064</v>
       </c>
       <c r="F8">
-        <v>230.5420967322059</v>
+        <v>388.3066937695059</v>
       </c>
       <c r="G8">
-        <v>219.8718738567147</v>
+        <v>371.2351479249039</v>
       </c>
       <c r="H8">
-        <v>17.78565262309424</v>
+        <v>30.23268418744719</v>
       </c>
       <c r="I8">
-        <v>1880.213060183994</v>
+        <v>1529.16930149684</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1741.114620232118</v>
+        <v>694.8922278657851</v>
       </c>
       <c r="C9">
-        <v>0.1486628864409053</v>
+        <v>0.2527024558169008</v>
       </c>
       <c r="D9">
-        <v>181.7026430723033</v>
+        <v>307.0486413779455</v>
       </c>
       <c r="E9">
-        <v>60.35514397737529</v>
+        <v>102.593817928647</v>
       </c>
       <c r="F9">
-        <v>255.1505227878909</v>
+        <v>429.755161081981</v>
       </c>
       <c r="G9">
-        <v>213.7643218051392</v>
+        <v>360.9230604825455</v>
       </c>
       <c r="H9">
-        <v>12.70403758792446</v>
+        <v>21.59477441960514</v>
       </c>
       <c r="I9">
-        <v>2464.939952349192</v>
+        <v>1917.060385612326</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2122.700219636281</v>
+        <v>847.1859736136155</v>
       </c>
       <c r="C10">
-        <v>0.2006948966952222</v>
+        <v>0.3411483153528161</v>
       </c>
       <c r="D10">
-        <v>107.3697436336338</v>
+        <v>181.4378335415133</v>
       </c>
       <c r="E10">
-        <v>61.32861404152651</v>
+        <v>104.2485569274961</v>
       </c>
       <c r="F10">
-        <v>152.8312776089904</v>
+        <v>257.4167969932678</v>
       </c>
       <c r="G10">
-        <v>81.43402735433878</v>
+        <v>137.494499231446</v>
       </c>
       <c r="H10">
-        <v>27.94888269343379</v>
+        <v>47.5085037231313</v>
       </c>
       <c r="I10">
-        <v>2553.8134598649</v>
+        <v>1575.633312345823</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2044.506449266576</v>
+        <v>815.9782388292244</v>
       </c>
       <c r="C11">
-        <v>0.1783954637290864</v>
+        <v>0.3032429469802809</v>
       </c>
       <c r="D11">
-        <v>90.85132153615166</v>
+        <v>153.5243206889728</v>
       </c>
       <c r="E11">
-        <v>72.03678474718984</v>
+        <v>122.4506859148367</v>
       </c>
       <c r="F11">
-        <v>108.7951467725016</v>
+        <v>183.2458554867331</v>
       </c>
       <c r="G11">
-        <v>50.89626709646171</v>
+        <v>85.93406201965372</v>
       </c>
       <c r="H11">
-        <v>5.081615035169781</v>
+        <v>8.637909767842055</v>
       </c>
       <c r="I11">
-        <v>2372.345979917779</v>
+        <v>1370.074315654243</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1471.0854665554</v>
+        <v>587.1215170770193</v>
       </c>
       <c r="C12">
-        <v>0.2452937626274938</v>
+        <v>0.4169590520978863</v>
       </c>
       <c r="D12">
-        <v>79.83904013783017</v>
+        <v>134.9153121206124</v>
       </c>
       <c r="E12">
-        <v>68.14290449058498</v>
+        <v>115.8317299194401</v>
       </c>
       <c r="F12">
-        <v>68.6445568921737</v>
+        <v>115.6194088190102</v>
       </c>
       <c r="G12">
-        <v>69.21892325118793</v>
+        <v>116.870324346729</v>
       </c>
       <c r="H12">
-        <v>2.540807517584891</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I12">
-        <v>1759.716992607389</v>
+        <v>1075.09420621883</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1061.350109818141</v>
+        <v>423.5929868068077</v>
       </c>
       <c r="C13">
-        <v>0.3865235047463538</v>
+        <v>0.6570263851239422</v>
       </c>
       <c r="D13">
-        <v>57.81447734118742</v>
+        <v>97.69729498389182</v>
       </c>
       <c r="E13">
-        <v>58.40820384907286</v>
+        <v>99.2843399309487</v>
       </c>
       <c r="F13">
-        <v>55.6927537049711</v>
+        <v>93.80442602297047</v>
       </c>
       <c r="G13">
-        <v>71.25477393504643</v>
+        <v>120.3076868275151</v>
       </c>
       <c r="H13">
-        <v>6.352018793962228</v>
+        <v>10.79738720980257</v>
       </c>
       <c r="I13">
-        <v>1311.258860947127</v>
+        <v>846.1411481670604</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>795.4912905611411</v>
+        <v>317.4866885398767</v>
       </c>
       <c r="C14">
-        <v>0.222994329661358</v>
+        <v>0.3790536837253511</v>
       </c>
       <c r="D14">
-        <v>30.2837738453839</v>
+        <v>51.17477356299093</v>
       </c>
       <c r="E14">
-        <v>57.43473378492163</v>
+        <v>97.62960093209955</v>
       </c>
       <c r="F14">
-        <v>34.96986860544697</v>
+        <v>58.90045354930708</v>
       </c>
       <c r="G14">
-        <v>36.64531230945243</v>
+        <v>61.87252465415065</v>
       </c>
       <c r="H14">
-        <v>6.352018793962228</v>
+        <v>10.79738720980257</v>
       </c>
       <c r="I14">
-        <v>961.3999922299695</v>
+        <v>598.2404821319528</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>501.4827139710469</v>
+        <v>200.1456057505642</v>
       </c>
       <c r="C15">
-        <v>0.2973257728818106</v>
+        <v>0.5054049116338016</v>
       </c>
       <c r="D15">
-        <v>30.2837738453839</v>
+        <v>51.17477356299093</v>
       </c>
       <c r="E15">
-        <v>32.12451211699008</v>
+        <v>54.60638696202177</v>
       </c>
       <c r="F15">
-        <v>31.08432764928618</v>
+        <v>52.35595871049517</v>
       </c>
       <c r="G15">
-        <v>26.4660588901601</v>
+        <v>44.68571225021992</v>
       </c>
       <c r="H15">
-        <v>2.540807517584891</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I15">
-        <v>624.2795197633338</v>
+        <v>407.7927970318469</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>295.0511601950237</v>
+        <v>117.7571859197707</v>
       </c>
       <c r="C16">
-        <v>0.1709623194070411</v>
+        <v>0.2906078241894359</v>
       </c>
       <c r="D16">
-        <v>11.01228139832142</v>
+        <v>18.60900856836033</v>
       </c>
       <c r="E16">
-        <v>14.60205096226821</v>
+        <v>24.82108498273718</v>
       </c>
       <c r="F16">
-        <v>28.49396701184568</v>
+        <v>47.99296215128724</v>
       </c>
       <c r="G16">
-        <v>44.78871504488633</v>
+        <v>75.62197457729526</v>
       </c>
       <c r="H16">
-        <v>2.540807517584891</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I16">
-        <v>396.6599444493372</v>
+        <v>289.4117789075611</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>178.2817964429293</v>
+        <v>71.1536353084127</v>
       </c>
       <c r="C17">
-        <v>0.1263634534747695</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D17">
-        <v>2.753070349580355</v>
+        <v>4.652252142090084</v>
       </c>
       <c r="E17">
-        <v>5.840820384907288</v>
+        <v>9.928433993094867</v>
       </c>
       <c r="F17">
-        <v>41.44577019904826</v>
+        <v>69.80794494732692</v>
       </c>
       <c r="G17">
-        <v>42.75286436102785</v>
+        <v>72.18461209650908</v>
       </c>
       <c r="H17">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I17">
-        <v>272.4710889497603</v>
+        <v>230.1011530168385</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>133.4507014309646</v>
+        <v>53.26120069869488</v>
       </c>
       <c r="C18">
-        <v>0.1932617523731769</v>
+        <v>0.3285131925619711</v>
       </c>
       <c r="D18">
-        <v>5.50614069916071</v>
+        <v>9.304504284180167</v>
       </c>
       <c r="E18">
-        <v>1.946940128302428</v>
+        <v>3.30947799769829</v>
       </c>
       <c r="F18">
-        <v>34.96986860544697</v>
+        <v>58.90045354930708</v>
       </c>
       <c r="G18">
-        <v>30.53776025787705</v>
+        <v>51.56043721179222</v>
       </c>
       <c r="I18">
-        <v>206.604672874125</v>
+        <v>176.6645869342346</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>78.19377036970589</v>
+        <v>31.20773478439155</v>
       </c>
       <c r="C19">
-        <v>0.08919773186454319</v>
+        <v>0.1516214734901405</v>
       </c>
       <c r="D19">
-        <v>8.259211048741058</v>
+        <v>13.95675642627025</v>
       </c>
       <c r="E19">
-        <v>0.9734700641512141</v>
+        <v>1.654738998849145</v>
       </c>
       <c r="F19">
-        <v>27.19878669312541</v>
+        <v>45.81146387168329</v>
       </c>
       <c r="G19">
-        <v>44.78871504488633</v>
+        <v>75.62197457729526</v>
       </c>
       <c r="I19">
-        <v>159.5031509524744</v>
+        <v>168.4042901319796</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>106.3435277028</v>
+        <v>42.44251930677247</v>
       </c>
       <c r="C20">
-        <v>0.0668982988984074</v>
+        <v>0.1137161051176053</v>
       </c>
       <c r="D20">
-        <v>8.259211048741058</v>
+        <v>13.95675642627025</v>
       </c>
       <c r="E20">
-        <v>7.787760513209713</v>
+        <v>13.23791199079316</v>
       </c>
       <c r="F20">
-        <v>25.90360637440516</v>
+        <v>43.62996559207929</v>
       </c>
       <c r="G20">
-        <v>24.43020820630163</v>
+        <v>41.24834976943377</v>
       </c>
       <c r="I20">
-        <v>172.7912121443559</v>
+        <v>154.6292191904665</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>213.7296390105293</v>
+        <v>85.30114174400353</v>
       </c>
       <c r="C21">
-        <v>0.1040640205086338</v>
+        <v>0.1768917190718305</v>
       </c>
       <c r="D21">
-        <v>8.259211048741058</v>
+        <v>13.95675642627025</v>
       </c>
       <c r="E21">
-        <v>4.867350320756071</v>
+        <v>8.273694994245725</v>
       </c>
       <c r="F21">
-        <v>34.96986860544697</v>
+        <v>58.90045354930708</v>
       </c>
       <c r="G21">
-        <v>50.89626709646171</v>
+        <v>85.93406201965372</v>
       </c>
       <c r="H21">
-        <v>3.811211276377335</v>
+        <v>6.478432325881541</v>
       </c>
       <c r="I21">
-        <v>316.6376113788211</v>
+        <v>259.0214327784337</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>633.8908317970823</v>
+        <v>252.9907033188007</v>
       </c>
       <c r="C22">
-        <v>0.1337965977968148</v>
+        <v>0.2274322102352107</v>
       </c>
       <c r="D22">
-        <v>52.30833664202672</v>
+        <v>88.39279069971158</v>
       </c>
       <c r="E22">
-        <v>21.41634141132671</v>
+        <v>36.40425797468119</v>
       </c>
       <c r="F22">
-        <v>80.30117976065603</v>
+        <v>135.2528933354459</v>
       </c>
       <c r="G22">
-        <v>97.72083282520651</v>
+        <v>164.9933990777351</v>
       </c>
       <c r="H22">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I22">
-        <v>887.0417227928875</v>
+        <v>680.42095405857</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1075.946280287153</v>
+        <v>429.4184306332276</v>
       </c>
       <c r="C23">
-        <v>0.09663087618658846</v>
+        <v>0.1642565962809855</v>
       </c>
       <c r="D23">
-        <v>71.57982908908916</v>
+        <v>120.9585556943422</v>
       </c>
       <c r="E23">
-        <v>57.43473378492163</v>
+        <v>97.62960093209955</v>
       </c>
       <c r="F23">
-        <v>110.090327091222</v>
+        <v>185.4273537663371</v>
       </c>
       <c r="G23">
-        <v>134.366145134659</v>
+        <v>226.8659237318857</v>
       </c>
       <c r="H23">
-        <v>15.24484510550934</v>
+        <v>25.91372930352616</v>
       </c>
       <c r="I23">
-        <v>1464.75879136874</v>
+        <v>1086.377850657699</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1690.028023590576</v>
+        <v>674.5031744733155</v>
       </c>
       <c r="C24">
-        <v>0.09663087618658846</v>
+        <v>0.1642565962809855</v>
       </c>
       <c r="D24">
-        <v>71.57982908908916</v>
+        <v>120.9585556943422</v>
       </c>
       <c r="E24">
-        <v>72.03678474718984</v>
+        <v>122.4506859148367</v>
       </c>
       <c r="F24">
-        <v>164.4879004774728</v>
+        <v>277.0502815097037</v>
       </c>
       <c r="G24">
-        <v>152.6888012893851</v>
+        <v>257.8021860589611</v>
       </c>
       <c r="H24">
-        <v>26.67847893464135</v>
+        <v>45.34902628117079</v>
       </c>
       <c r="I24">
-        <v>2177.596449004541</v>
+        <v>1498.278166528611</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1643.111761368752</v>
+        <v>655.77853360268</v>
       </c>
       <c r="C25">
-        <v>0.1635291750849959</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D25">
-        <v>77.08596978824993</v>
+        <v>130.2630599785224</v>
       </c>
       <c r="E25">
-        <v>68.14290449058498</v>
+        <v>115.8317299194401</v>
       </c>
       <c r="F25">
-        <v>137.2891137843474</v>
+        <v>231.2388176380203</v>
       </c>
       <c r="G25">
-        <v>183.2265615472622</v>
+        <v>309.3626232707533</v>
       </c>
       <c r="H25">
-        <v>5.081615035169781</v>
+        <v>8.637909767842055</v>
       </c>
       <c r="I25">
-        <v>2114.101455189452</v>
+        <v>1451.390646878657</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1582.641912282847</v>
+        <v>631.6445520360844</v>
       </c>
       <c r="C26">
-        <v>0.1783954637290864</v>
+        <v>0.3032429469802809</v>
       </c>
       <c r="D26">
-        <v>118.3820250319552</v>
+        <v>200.0468421098737</v>
       </c>
       <c r="E26">
-        <v>52.56738346416558</v>
+        <v>89.35590593785382</v>
       </c>
       <c r="F26">
-        <v>273.2830472499743</v>
+        <v>460.2961369964368</v>
       </c>
       <c r="G26">
-        <v>431.6003449779955</v>
+        <v>728.7208459266635</v>
       </c>
       <c r="H26">
-        <v>21.59686389947157</v>
+        <v>36.71111651332873</v>
       </c>
       <c r="I26">
-        <v>2480.249972370138</v>
+        <v>2147.078642467221</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1291.761086507541</v>
+        <v>515.5517786381482</v>
       </c>
       <c r="C27">
-        <v>0.2006948966952222</v>
+        <v>0.3411483153528161</v>
       </c>
       <c r="D27">
-        <v>77.08596978824993</v>
+        <v>130.2630599785224</v>
       </c>
       <c r="E27">
-        <v>51.59391340001437</v>
+        <v>87.70116693900468</v>
       </c>
       <c r="F27">
-        <v>264.2167850189327</v>
+        <v>445.0256490392089</v>
       </c>
       <c r="G27">
-        <v>372.5606751460999</v>
+        <v>629.0373339838649</v>
       </c>
       <c r="H27">
-        <v>16.51524886430179</v>
+        <v>28.07320674548668</v>
       </c>
       <c r="I27">
-        <v>2073.934373621834</v>
+        <v>1835.993343639588</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1387.678778161047</v>
+        <v>553.8332666403353</v>
       </c>
       <c r="C28">
-        <v>0.3567909274581728</v>
+        <v>0.6064858939605619</v>
       </c>
       <c r="D28">
-        <v>115.6289546823748</v>
+        <v>195.3945899677836</v>
       </c>
       <c r="E28">
-        <v>57.43473378492163</v>
+        <v>97.62960093209955</v>
       </c>
       <c r="F28">
-        <v>196.8674084454792</v>
+        <v>331.5877384998026</v>
       </c>
       <c r="G28">
-        <v>331.8436614689303</v>
+        <v>560.2900843681423</v>
       </c>
       <c r="H28">
-        <v>11.433633829132</v>
+        <v>19.43529697764462</v>
       </c>
       <c r="I28">
-        <v>2101.243961299343</v>
+        <v>1758.777063279769</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1254.228076730082</v>
+        <v>500.5720659416403</v>
       </c>
       <c r="C29">
-        <v>0.1709623194070411</v>
+        <v>0.2906078241894359</v>
       </c>
       <c r="D29">
-        <v>104.6166732840534</v>
+        <v>176.7855813994232</v>
       </c>
       <c r="E29">
-        <v>62.3020841056777</v>
+        <v>105.9032959263453</v>
       </c>
       <c r="F29">
-        <v>173.5541627085146</v>
+        <v>292.3207694669313</v>
       </c>
       <c r="G29">
-        <v>209.6926204374224</v>
+        <v>354.0483355209732</v>
       </c>
       <c r="H29">
-        <v>2.540807517584891</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I29">
-        <v>1807.105387102742</v>
+        <v>1434.239610963424</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1316.783093025847</v>
+        <v>525.5382537691535</v>
       </c>
       <c r="C30">
-        <v>0.1858286080511317</v>
+        <v>0.315878069771126</v>
       </c>
       <c r="D30">
-        <v>99.11053258489275</v>
+        <v>167.4810771152431</v>
       </c>
       <c r="E30">
-        <v>51.59391340001437</v>
+        <v>87.70116693900468</v>
       </c>
       <c r="F30">
-        <v>266.8071456563732</v>
+        <v>449.388645598417</v>
       </c>
       <c r="G30">
-        <v>256.5171861661671</v>
+        <v>433.1076725790547</v>
       </c>
       <c r="H30">
-        <v>10.16323007033956</v>
+        <v>17.27581953568411</v>
       </c>
       <c r="I30">
-        <v>2001.160929511685</v>
+        <v>1680.808513606328</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1345.97543396387</v>
+        <v>537.1891414219931</v>
       </c>
       <c r="C31">
-        <v>0.1858286080511317</v>
+        <v>0.315878069771126</v>
       </c>
       <c r="D31">
-        <v>104.6166732840534</v>
+        <v>176.7855813994232</v>
       </c>
       <c r="E31">
-        <v>54.514323592468</v>
+        <v>92.66538393555211</v>
       </c>
       <c r="F31">
-        <v>212.4095722701224</v>
+        <v>357.7657178550502</v>
       </c>
       <c r="G31">
-        <v>238.1945300114407</v>
+        <v>402.1714102519794</v>
       </c>
       <c r="H31">
-        <v>25.40807517584891</v>
+        <v>43.18954883921027</v>
       </c>
       <c r="I31">
-        <v>1981.304436905855</v>
+        <v>1610.082661772979</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1583.684495887776</v>
+        <v>632.0606551665431</v>
       </c>
       <c r="C32">
-        <v>0.2006948966952222</v>
+        <v>0.3411483153528161</v>
       </c>
       <c r="D32">
-        <v>66.07368838992846</v>
+        <v>111.654051410162</v>
       </c>
       <c r="E32">
-        <v>59.38167391322408</v>
+        <v>100.9390789297978</v>
       </c>
       <c r="F32">
-        <v>251.26498183173</v>
+        <v>423.2106662431694</v>
       </c>
       <c r="G32">
-        <v>223.9435752244315</v>
+        <v>378.1098728864762</v>
       </c>
       <c r="H32">
-        <v>17.78565262309424</v>
+        <v>30.23268418744719</v>
       </c>
       <c r="I32">
-        <v>2202.33476276688</v>
+        <v>1676.548157138948</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1741.114620232118</v>
+        <v>694.8922278657851</v>
       </c>
       <c r="C33">
-        <v>0.1486628864409053</v>
+        <v>0.2527024558169008</v>
       </c>
       <c r="D33">
-        <v>181.7026430723033</v>
+        <v>307.0486413779455</v>
       </c>
       <c r="E33">
-        <v>60.35514397737529</v>
+        <v>102.593817928647</v>
       </c>
       <c r="F33">
-        <v>255.1505227878909</v>
+        <v>429.755161081981</v>
       </c>
       <c r="G33">
-        <v>213.7643218051392</v>
+        <v>360.9230604825455</v>
       </c>
       <c r="H33">
-        <v>12.70403758792446</v>
+        <v>21.59477441960514</v>
       </c>
       <c r="I33">
-        <v>2464.939952349192</v>
+        <v>1917.060385612326</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2122.700219636281</v>
+        <v>847.1859736136155</v>
       </c>
       <c r="C34">
-        <v>0.2006948966952222</v>
+        <v>0.3411483153528161</v>
       </c>
       <c r="D34">
-        <v>107.3697436336338</v>
+        <v>181.4378335415133</v>
       </c>
       <c r="E34">
-        <v>61.32861404152651</v>
+        <v>104.2485569274961</v>
       </c>
       <c r="F34">
-        <v>152.8312776089904</v>
+        <v>257.4167969932678</v>
       </c>
       <c r="G34">
-        <v>81.43402735433878</v>
+        <v>137.494499231446</v>
       </c>
       <c r="H34">
-        <v>27.94888269343379</v>
+        <v>47.5085037231313</v>
       </c>
       <c r="I34">
-        <v>2553.8134598649</v>
+        <v>1575.633312345823</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2044.506449266576</v>
+        <v>815.9782388292244</v>
       </c>
       <c r="C35">
-        <v>0.1783954637290864</v>
+        <v>0.3032429469802809</v>
       </c>
       <c r="D35">
-        <v>90.85132153615166</v>
+        <v>153.5243206889728</v>
       </c>
       <c r="E35">
-        <v>72.03678474718984</v>
+        <v>122.4506859148367</v>
       </c>
       <c r="F35">
-        <v>108.7951467725016</v>
+        <v>183.2458554867331</v>
       </c>
       <c r="G35">
-        <v>50.89626709646171</v>
+        <v>85.93406201965372</v>
       </c>
       <c r="H35">
-        <v>5.081615035169781</v>
+        <v>8.637909767842055</v>
       </c>
       <c r="I35">
-        <v>2372.345979917779</v>
+        <v>1370.074315654243</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1471.0854665554</v>
+        <v>587.1215170770193</v>
       </c>
       <c r="C36">
-        <v>0.2452937626274938</v>
+        <v>0.4169590520978863</v>
       </c>
       <c r="D36">
-        <v>79.83904013783017</v>
+        <v>134.9153121206124</v>
       </c>
       <c r="E36">
-        <v>68.14290449058498</v>
+        <v>115.8317299194401</v>
       </c>
       <c r="F36">
-        <v>68.6445568921737</v>
+        <v>115.6194088190102</v>
       </c>
       <c r="G36">
-        <v>69.21892325118793</v>
+        <v>116.870324346729</v>
       </c>
       <c r="H36">
-        <v>2.540807517584891</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I36">
-        <v>1759.716992607389</v>
+        <v>1075.09420621883</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1061.350109818141</v>
+        <v>423.5929868068077</v>
       </c>
       <c r="C37">
-        <v>0.3865235047463538</v>
+        <v>0.6570263851239422</v>
       </c>
       <c r="D37">
-        <v>57.81447734118742</v>
+        <v>97.69729498389182</v>
       </c>
       <c r="E37">
-        <v>58.40820384907286</v>
+        <v>99.2843399309487</v>
       </c>
       <c r="F37">
-        <v>55.6927537049711</v>
+        <v>93.80442602297047</v>
       </c>
       <c r="G37">
-        <v>71.25477393504643</v>
+        <v>120.3076868275151</v>
       </c>
       <c r="H37">
-        <v>6.352018793962228</v>
+        <v>10.79738720980257</v>
       </c>
       <c r="I37">
-        <v>1311.258860947127</v>
+        <v>846.1411481670604</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>795.4912905611411</v>
+        <v>317.4866885398767</v>
       </c>
       <c r="C38">
-        <v>0.222994329661358</v>
+        <v>0.3790536837253511</v>
       </c>
       <c r="D38">
-        <v>30.2837738453839</v>
+        <v>51.17477356299093</v>
       </c>
       <c r="E38">
-        <v>57.43473378492163</v>
+        <v>97.62960093209955</v>
       </c>
       <c r="F38">
-        <v>34.96986860544697</v>
+        <v>58.90045354930708</v>
       </c>
       <c r="G38">
-        <v>36.64531230945243</v>
+        <v>61.87252465415065</v>
       </c>
       <c r="H38">
-        <v>6.352018793962228</v>
+        <v>10.79738720980257</v>
       </c>
       <c r="I38">
-        <v>961.3999922299695</v>
+        <v>598.2404821319528</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>501.4827139710469</v>
+        <v>200.1456057505642</v>
       </c>
       <c r="C39">
-        <v>0.2973257728818106</v>
+        <v>0.5054049116338016</v>
       </c>
       <c r="D39">
-        <v>30.2837738453839</v>
+        <v>51.17477356299093</v>
       </c>
       <c r="E39">
-        <v>32.12451211699008</v>
+        <v>54.60638696202177</v>
       </c>
       <c r="F39">
-        <v>31.08432764928618</v>
+        <v>52.35595871049517</v>
       </c>
       <c r="G39">
-        <v>26.4660588901601</v>
+        <v>44.68571225021992</v>
       </c>
       <c r="H39">
-        <v>2.540807517584891</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I39">
-        <v>624.2795197633338</v>
+        <v>407.7927970318469</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>295.0511601950237</v>
+        <v>117.7571859197707</v>
       </c>
       <c r="C40">
-        <v>0.1709623194070411</v>
+        <v>0.2906078241894359</v>
       </c>
       <c r="D40">
-        <v>11.01228139832142</v>
+        <v>18.60900856836033</v>
       </c>
       <c r="E40">
-        <v>14.60205096226821</v>
+        <v>24.82108498273718</v>
       </c>
       <c r="F40">
-        <v>28.49396701184568</v>
+        <v>47.99296215128724</v>
       </c>
       <c r="G40">
-        <v>44.78871504488633</v>
+        <v>75.62197457729526</v>
       </c>
       <c r="H40">
-        <v>2.540807517584891</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I40">
-        <v>396.6599444493372</v>
+        <v>289.4117789075611</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>178.2817964429293</v>
+        <v>71.1536353084127</v>
       </c>
       <c r="C41">
-        <v>0.1263634534747695</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D41">
-        <v>2.753070349580355</v>
+        <v>4.652252142090084</v>
       </c>
       <c r="E41">
-        <v>5.840820384907288</v>
+        <v>9.928433993094867</v>
       </c>
       <c r="F41">
-        <v>41.44577019904826</v>
+        <v>69.80794494732692</v>
       </c>
       <c r="G41">
-        <v>42.75286436102785</v>
+        <v>72.18461209650908</v>
       </c>
       <c r="H41">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I41">
-        <v>272.4710889497603</v>
+        <v>230.1011530168385</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>133.4507014309646</v>
+        <v>53.26120069869488</v>
       </c>
       <c r="C42">
-        <v>0.1932617523731769</v>
+        <v>0.3285131925619711</v>
       </c>
       <c r="D42">
-        <v>5.50614069916071</v>
+        <v>9.304504284180167</v>
       </c>
       <c r="E42">
-        <v>1.946940128302428</v>
+        <v>3.30947799769829</v>
       </c>
       <c r="F42">
-        <v>34.96986860544697</v>
+        <v>58.90045354930708</v>
       </c>
       <c r="G42">
-        <v>30.53776025787705</v>
+        <v>51.56043721179222</v>
       </c>
       <c r="I42">
-        <v>206.604672874125</v>
+        <v>176.6645869342346</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>78.19377036970589</v>
+        <v>31.20773478439155</v>
       </c>
       <c r="C43">
-        <v>0.08919773186454319</v>
+        <v>0.1516214734901405</v>
       </c>
       <c r="D43">
-        <v>8.259211048741058</v>
+        <v>13.95675642627025</v>
       </c>
       <c r="E43">
-        <v>0.9734700641512141</v>
+        <v>1.654738998849145</v>
       </c>
       <c r="F43">
-        <v>27.19878669312541</v>
+        <v>45.81146387168329</v>
       </c>
       <c r="G43">
-        <v>44.78871504488633</v>
+        <v>75.62197457729526</v>
       </c>
       <c r="I43">
-        <v>159.5031509524744</v>
+        <v>168.4042901319796</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>106.3435277028</v>
+        <v>42.44251930677247</v>
       </c>
       <c r="C44">
-        <v>0.0668982988984074</v>
+        <v>0.1137161051176053</v>
       </c>
       <c r="D44">
-        <v>8.259211048741058</v>
+        <v>13.95675642627025</v>
       </c>
       <c r="E44">
-        <v>7.787760513209713</v>
+        <v>13.23791199079316</v>
       </c>
       <c r="F44">
-        <v>25.90360637440516</v>
+        <v>43.62996559207929</v>
       </c>
       <c r="G44">
-        <v>24.43020820630163</v>
+        <v>41.24834976943377</v>
       </c>
       <c r="I44">
-        <v>172.7912121443559</v>
+        <v>154.6292191904665</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>213.7296390105293</v>
+        <v>85.30114174400353</v>
       </c>
       <c r="C45">
-        <v>0.1040640205086338</v>
+        <v>0.1768917190718305</v>
       </c>
       <c r="D45">
-        <v>8.259211048741058</v>
+        <v>13.95675642627025</v>
       </c>
       <c r="E45">
-        <v>4.867350320756071</v>
+        <v>8.273694994245725</v>
       </c>
       <c r="F45">
-        <v>34.96986860544697</v>
+        <v>58.90045354930708</v>
       </c>
       <c r="G45">
-        <v>50.89626709646171</v>
+        <v>85.93406201965372</v>
       </c>
       <c r="H45">
-        <v>3.811211276377335</v>
+        <v>6.478432325881541</v>
       </c>
       <c r="I45">
-        <v>316.6376113788211</v>
+        <v>259.0214327784337</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>633.8908317970823</v>
+        <v>252.9907033188007</v>
       </c>
       <c r="C46">
-        <v>0.1337965977968148</v>
+        <v>0.2274322102352107</v>
       </c>
       <c r="D46">
-        <v>52.30833664202672</v>
+        <v>88.39279069971158</v>
       </c>
       <c r="E46">
-        <v>21.41634141132671</v>
+        <v>36.40425797468119</v>
       </c>
       <c r="F46">
-        <v>80.30117976065603</v>
+        <v>135.2528933354459</v>
       </c>
       <c r="G46">
-        <v>97.72083282520651</v>
+        <v>164.9933990777351</v>
       </c>
       <c r="H46">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I46">
-        <v>887.0417227928875</v>
+        <v>680.42095405857</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1075.946280287153</v>
+        <v>429.4184306332276</v>
       </c>
       <c r="C47">
-        <v>0.09663087618658846</v>
+        <v>0.1642565962809855</v>
       </c>
       <c r="D47">
-        <v>71.57982908908916</v>
+        <v>120.9585556943422</v>
       </c>
       <c r="E47">
-        <v>57.43473378492163</v>
+        <v>97.62960093209955</v>
       </c>
       <c r="F47">
-        <v>110.090327091222</v>
+        <v>185.4273537663371</v>
       </c>
       <c r="G47">
-        <v>134.366145134659</v>
+        <v>226.8659237318857</v>
       </c>
       <c r="H47">
-        <v>15.24484510550934</v>
+        <v>25.91372930352616</v>
       </c>
       <c r="I47">
-        <v>1464.75879136874</v>
+        <v>1086.377850657699</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1690.028023590576</v>
+        <v>674.5031744733155</v>
       </c>
       <c r="C48">
-        <v>0.09663087618658846</v>
+        <v>0.1642565962809855</v>
       </c>
       <c r="D48">
-        <v>71.57982908908916</v>
+        <v>120.9585556943422</v>
       </c>
       <c r="E48">
-        <v>72.03678474718984</v>
+        <v>122.4506859148367</v>
       </c>
       <c r="F48">
-        <v>164.4879004774728</v>
+        <v>277.0502815097037</v>
       </c>
       <c r="G48">
-        <v>152.6888012893851</v>
+        <v>257.8021860589611</v>
       </c>
       <c r="H48">
-        <v>26.67847893464135</v>
+        <v>45.34902628117079</v>
       </c>
       <c r="I48">
-        <v>2177.596449004541</v>
+        <v>1498.278166528611</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1643.111761368752</v>
+        <v>655.77853360268</v>
       </c>
       <c r="C49">
-        <v>0.1635291750849959</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D49">
-        <v>77.08596978824993</v>
+        <v>130.2630599785224</v>
       </c>
       <c r="E49">
-        <v>68.14290449058498</v>
+        <v>115.8317299194401</v>
       </c>
       <c r="F49">
-        <v>137.2891137843474</v>
+        <v>231.2388176380203</v>
       </c>
       <c r="G49">
-        <v>183.2265615472622</v>
+        <v>309.3626232707533</v>
       </c>
       <c r="H49">
-        <v>5.081615035169781</v>
+        <v>8.637909767842055</v>
       </c>
       <c r="I49">
-        <v>2114.101455189452</v>
+        <v>1451.390646878657</v>
       </c>
     </row>
   </sheetData>
